--- a/scripts/GameConfig.xlsx
+++ b/scripts/GameConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\smart-contract\EthBuildQuest_FadingHope\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140C36A5-B399-4B46-BA85-6BE8082AE8DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC345F7A-C0E5-4B1A-BBE9-731DE06F9BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,6 @@
     <sheet name="JsonConvert" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -124,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t>Number</t>
   </si>
@@ -249,12 +248,15 @@
   <si>
     <t>IncomePerSec</t>
   </si>
+  <si>
+    <t>0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -279,6 +281,17 @@
       <i/>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -331,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -348,12 +361,6 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="11" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -361,6 +368,17 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -27594,6 +27612,60 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5853A0C2-F152-4705-9195-DD8C6A35F7F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -27932,17 +28004,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E2" s="3"/>
@@ -54845,21 +54917,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B3BC7E6-0596-4AD7-8AAB-16F045D03D3A}">
-  <dimension ref="A1:R82"/>
+  <dimension ref="A1:R83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14" style="18" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="14" style="16" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="16" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" customWidth="1"/>
     <col min="11" max="11" width="12.28515625" customWidth="1"/>
-    <col min="13" max="13" width="16.28515625" style="18" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" style="18" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" style="16" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" style="16" customWidth="1"/>
     <col min="18" max="18" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -54867,10 +54939,10 @@
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D1" s="10" t="s">
@@ -54886,10 +54958,10 @@
       <c r="H1" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="15" t="s">
         <v>29</v>
       </c>
       <c r="O1" t="s">
@@ -54906,45 +54978,41 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="23">
+        <v>0</v>
+      </c>
+      <c r="B2" s="24">
+        <v>0</v>
+      </c>
+      <c r="C2" s="24">
         <v>1</v>
       </c>
-      <c r="B2" s="18">
-        <v>100</v>
-      </c>
-      <c r="C2" s="18">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>2.7499999999999998E-3</v>
-      </c>
-      <c r="E2">
-        <f>D2</f>
-        <v>2.7499999999999998E-3</v>
-      </c>
-      <c r="F2">
-        <f>E2/24</f>
-        <v>1.1458333333333333E-4</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2">
-        <v>5</v>
-      </c>
-      <c r="M2" s="18">
-        <f>B2*I$4</f>
-        <v>300</v>
-      </c>
-      <c r="N2" s="18">
-        <f>B2*I$5</f>
-        <v>120</v>
+      <c r="D2" s="25">
+        <v>0</v>
+      </c>
+      <c r="E2" s="25">
+        <v>0</v>
+      </c>
+      <c r="F2" s="25">
+        <v>0</v>
+      </c>
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="24">
+        <v>0</v>
+      </c>
+      <c r="N2" s="24">
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R2">
         <v>0.1</v>
@@ -54952,4889 +55020,4954 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f>A2+1</f>
-        <v>2</v>
-      </c>
-      <c r="B3" s="18">
-        <f>B2*I$2</f>
-        <v>500</v>
-      </c>
-      <c r="C3" s="18">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="B3" s="16">
+        <v>100</v>
+      </c>
+      <c r="C3" s="16">
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>0.02</v>
+        <v>2.7499999999999998E-3</v>
       </c>
       <c r="E3">
-        <f>D3+E2</f>
-        <v>2.2749999999999999E-2</v>
+        <f>D3</f>
+        <v>2.7499999999999998E-3</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F66" si="0">E3/24</f>
-        <v>9.4791666666666668E-4</v>
+        <f>E3/24</f>
+        <v>1.1458333333333333E-4</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="18">
-        <f t="shared" ref="M3:M66" si="1">B3*I$4</f>
-        <v>1500</v>
-      </c>
-      <c r="N3" s="18">
-        <f t="shared" ref="N3:N66" si="2">B3*I$5</f>
-        <v>600</v>
+        <v>19</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="M3" s="16">
+        <f>B3*I$5</f>
+        <v>300</v>
+      </c>
+      <c r="N3" s="16">
+        <f>B3*I$6</f>
+        <v>120</v>
+      </c>
+      <c r="O3">
+        <v>1000</v>
       </c>
       <c r="Q3">
-        <f>Q2*J$10</f>
-        <v>8.1999999999999993</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
-        <f t="shared" ref="A4:A67" si="3">A3+1</f>
-        <v>3</v>
-      </c>
-      <c r="B4" s="18">
-        <f>B3*I$2</f>
-        <v>2500</v>
-      </c>
-      <c r="C4" s="18">
-        <f t="shared" ref="C4:C67" si="4">B4/(D4*3600)</f>
-        <v>13.888888888888889</v>
+        <f>A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="16">
+        <f t="shared" ref="B4:B35" si="0">B3*I$3</f>
+        <v>500</v>
+      </c>
+      <c r="C4" s="16">
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E55" si="5">D4+E3</f>
-        <v>7.2750000000000009E-2</v>
+        <f>D4+E3</f>
+        <v>2.2749999999999999E-2</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
-        <v>3.0312500000000005E-3</v>
+        <f t="shared" ref="F4:F67" si="1">E4/24</f>
+        <v>9.4791666666666668E-4</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4">
-        <v>3</v>
-      </c>
-      <c r="M4" s="18">
-        <f t="shared" si="1"/>
-        <v>7500</v>
-      </c>
-      <c r="N4" s="18">
-        <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>27</v>
+      </c>
+      <c r="M4" s="16">
+        <f t="shared" ref="M4:M67" si="2">B4*I$5</f>
+        <v>1500</v>
+      </c>
+      <c r="N4" s="16">
+        <f t="shared" ref="N4:N67" si="3">B4*I$6</f>
+        <v>600</v>
       </c>
       <c r="Q4">
-        <f t="shared" ref="Q4:Q67" si="6">Q3*J$10</f>
-        <v>6.7239999999999993</v>
+        <f>Q3*J$11</f>
+        <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
+        <f t="shared" ref="A5:A68" si="4">A4+1</f>
+        <v>3</v>
+      </c>
+      <c r="B5" s="16">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+      <c r="C5" s="16">
+        <f t="shared" ref="C5:C68" si="5">B5/(D5*3600)</f>
+        <v>13.888888888888889</v>
+      </c>
+      <c r="D5">
+        <v>0.05</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E56" si="6">D5+E4</f>
+        <v>7.2750000000000009E-2</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>3.0312500000000005E-3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="M5" s="16">
+        <f t="shared" si="2"/>
+        <v>7500</v>
+      </c>
+      <c r="N5" s="16">
         <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="B5" s="18">
-        <f>B4*I$2</f>
-        <v>12500</v>
-      </c>
-      <c r="C5" s="18">
-        <f t="shared" si="4"/>
-        <v>57.870370370370374</v>
-      </c>
-      <c r="D5">
-        <v>0.06</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="5"/>
-        <v>0.13275000000000001</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>5.5312500000000006E-3</v>
-      </c>
-      <c r="H5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5">
-        <v>1.2</v>
-      </c>
-      <c r="M5" s="18">
-        <f t="shared" si="1"/>
-        <v>37500</v>
-      </c>
-      <c r="N5" s="18">
-        <f t="shared" si="2"/>
-        <v>15000</v>
+        <v>3000</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="6"/>
-        <v>5.513679999999999</v>
+        <f t="shared" ref="Q5:Q68" si="7">Q4*J$11</f>
+        <v>6.7239999999999993</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="16">
+        <f t="shared" si="0"/>
+        <v>12500</v>
+      </c>
+      <c r="C6" s="16">
+        <f t="shared" si="5"/>
+        <v>57.870370370370374</v>
+      </c>
+      <c r="D6">
+        <v>0.06</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="6"/>
+        <v>0.13275000000000001</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>5.5312500000000006E-3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6">
+        <v>1.2</v>
+      </c>
+      <c r="M6" s="16">
+        <f t="shared" si="2"/>
+        <v>37500</v>
+      </c>
+      <c r="N6" s="16">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="B6" s="18">
-        <f>B5*I$2</f>
-        <v>62500</v>
-      </c>
-      <c r="C6" s="18">
-        <f t="shared" si="4"/>
-        <v>144.67592592592592</v>
-      </c>
-      <c r="D6" s="20">
-        <f>D5*2</f>
-        <v>0.12</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="5"/>
-        <v>0.25275000000000003</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>1.0531250000000001E-2</v>
-      </c>
-      <c r="M6" s="18">
-        <f t="shared" si="1"/>
-        <v>187500</v>
-      </c>
-      <c r="N6" s="18">
-        <f t="shared" si="2"/>
-        <v>75000</v>
+        <v>15000</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="6"/>
-        <v>4.5212175999999991</v>
+        <f t="shared" si="7"/>
+        <v>5.513679999999999</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="16">
+        <f t="shared" si="0"/>
+        <v>62500</v>
+      </c>
+      <c r="C7" s="16">
+        <f t="shared" si="5"/>
+        <v>144.67592592592592</v>
+      </c>
+      <c r="D7" s="18">
+        <f>D6*2</f>
+        <v>0.12</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="6"/>
+        <v>0.25275000000000003</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>1.0531250000000001E-2</v>
+      </c>
+      <c r="M7" s="16">
+        <f t="shared" si="2"/>
+        <v>187500</v>
+      </c>
+      <c r="N7" s="16">
         <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="18">
-        <f>B6*I$2</f>
-        <v>312500</v>
-      </c>
-      <c r="C7" s="18">
-        <f t="shared" si="4"/>
-        <v>361.68981481481484</v>
-      </c>
-      <c r="D7" s="20">
-        <f>D6*2</f>
-        <v>0.24</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="5"/>
-        <v>0.49275000000000002</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>2.0531250000000001E-2</v>
-      </c>
-      <c r="H7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" s="18">
-        <f t="shared" si="1"/>
-        <v>937500</v>
-      </c>
-      <c r="N7" s="18">
-        <f t="shared" si="2"/>
-        <v>375000</v>
+        <v>75000</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="6"/>
-        <v>3.7073984319999989</v>
+        <f t="shared" si="7"/>
+        <v>4.5212175999999991</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="16">
+        <f t="shared" si="0"/>
+        <v>312500</v>
+      </c>
+      <c r="C8" s="16">
+        <f t="shared" si="5"/>
+        <v>361.68981481481484</v>
+      </c>
+      <c r="D8" s="18">
+        <f>D7*2</f>
+        <v>0.24</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="6"/>
+        <v>0.49275000000000002</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>2.0531250000000001E-2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="16">
+        <f t="shared" si="2"/>
+        <v>937500</v>
+      </c>
+      <c r="N8" s="16">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="18">
-        <f>B7*I$2</f>
-        <v>1562500</v>
-      </c>
-      <c r="C8" s="18">
-        <f t="shared" si="4"/>
-        <v>904.22453703703707</v>
-      </c>
-      <c r="D8" s="20">
-        <f t="shared" ref="D8:D10" si="7">D7*2</f>
-        <v>0.48</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="5"/>
-        <v>0.97275</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>4.0531249999999998E-2</v>
-      </c>
-      <c r="H8" t="s">
-        <v>33</v>
-      </c>
-      <c r="M8" s="18">
-        <f t="shared" si="1"/>
-        <v>4687500</v>
-      </c>
-      <c r="N8" s="18">
-        <f t="shared" si="2"/>
-        <v>1875000</v>
+        <v>375000</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="6"/>
-        <v>3.0400667142399991</v>
+        <f t="shared" si="7"/>
+        <v>3.7073984319999989</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="16">
+        <f t="shared" si="0"/>
+        <v>1562500</v>
+      </c>
+      <c r="C9" s="16">
+        <f t="shared" si="5"/>
+        <v>904.22453703703707</v>
+      </c>
+      <c r="D9" s="18">
+        <f t="shared" ref="D9:D11" si="8">D8*2</f>
+        <v>0.48</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="6"/>
+        <v>0.97275</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>4.0531249999999998E-2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" s="16">
+        <f t="shared" si="2"/>
+        <v>4687500</v>
+      </c>
+      <c r="N9" s="16">
         <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="B9" s="18">
-        <f>B8*I$2</f>
-        <v>7812500</v>
-      </c>
-      <c r="C9" s="18">
-        <f t="shared" si="4"/>
-        <v>2260.5613425925926</v>
-      </c>
-      <c r="D9" s="20">
+        <v>1875000</v>
+      </c>
+      <c r="Q9">
         <f t="shared" si="7"/>
-        <v>0.96</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="5"/>
-        <v>1.93275</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>8.0531249999999999E-2</v>
-      </c>
-      <c r="M9" s="18">
-        <f t="shared" si="1"/>
-        <v>23437500</v>
-      </c>
-      <c r="N9" s="18">
-        <f t="shared" si="2"/>
-        <v>9375000</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="6"/>
-        <v>2.4928547056767991</v>
+        <v>3.0400667142399991</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="16">
+        <f t="shared" si="0"/>
+        <v>7812500</v>
+      </c>
+      <c r="C10" s="16">
+        <f t="shared" si="5"/>
+        <v>2260.5613425925926</v>
+      </c>
+      <c r="D10" s="18">
+        <f t="shared" si="8"/>
+        <v>0.96</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="6"/>
+        <v>1.93275</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>8.0531249999999999E-2</v>
+      </c>
+      <c r="M10" s="16">
+        <f t="shared" si="2"/>
+        <v>23437500</v>
+      </c>
+      <c r="N10" s="16">
         <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="B10" s="18">
-        <f>B9*I$2</f>
-        <v>39062500</v>
-      </c>
-      <c r="C10" s="18">
-        <f t="shared" si="4"/>
-        <v>5651.4033564814818</v>
-      </c>
-      <c r="D10" s="20">
+        <v>9375000</v>
+      </c>
+      <c r="Q10">
         <f t="shared" si="7"/>
-        <v>1.92</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="5"/>
-        <v>3.8527499999999999</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>0.16053124999999999</v>
-      </c>
-      <c r="H10" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10">
-        <v>0.82</v>
-      </c>
-      <c r="M10" s="18">
-        <f t="shared" si="1"/>
-        <v>117187500</v>
-      </c>
-      <c r="N10" s="18">
-        <f t="shared" si="2"/>
-        <v>46875000</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="6"/>
-        <v>2.0441408586549752</v>
+        <v>2.4928547056767991</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="16">
+        <f t="shared" si="0"/>
+        <v>39062500</v>
+      </c>
+      <c r="C11" s="16">
+        <f t="shared" si="5"/>
+        <v>5651.4033564814818</v>
+      </c>
+      <c r="D11" s="18">
+        <f t="shared" si="8"/>
+        <v>1.92</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="6"/>
+        <v>3.8527499999999999</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>0.16053124999999999</v>
+      </c>
+      <c r="H11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11">
+        <v>0.82</v>
+      </c>
+      <c r="M11" s="16">
+        <f t="shared" si="2"/>
+        <v>117187500</v>
+      </c>
+      <c r="N11" s="16">
         <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="B11" s="18">
-        <f>B10*I$2</f>
-        <v>195312500</v>
-      </c>
-      <c r="C11" s="18">
-        <f t="shared" si="4"/>
-        <v>18838.011188271605</v>
-      </c>
-      <c r="D11" s="16">
-        <f t="shared" ref="D11:D16" si="8">D10*1.5</f>
-        <v>2.88</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="5"/>
-        <v>6.7327499999999993</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>0.28053124999999995</v>
-      </c>
-      <c r="M11" s="18">
-        <f t="shared" si="1"/>
-        <v>585937500</v>
-      </c>
-      <c r="N11" s="18">
-        <f t="shared" si="2"/>
-        <v>234375000</v>
+        <v>46875000</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="6"/>
-        <v>1.6761955040970795</v>
+        <f t="shared" si="7"/>
+        <v>2.0441408586549752</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="16">
+        <f t="shared" si="0"/>
+        <v>195312500</v>
+      </c>
+      <c r="C12" s="16">
+        <f t="shared" si="5"/>
+        <v>18838.011188271605</v>
+      </c>
+      <c r="D12" s="14">
+        <f t="shared" ref="D12:D17" si="9">D11*1.5</f>
+        <v>2.88</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="6"/>
+        <v>6.7327499999999993</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>0.28053124999999995</v>
+      </c>
+      <c r="M12" s="16">
+        <f t="shared" si="2"/>
+        <v>585937500</v>
+      </c>
+      <c r="N12" s="16">
         <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="B12" s="18">
-        <f>B11*I$2</f>
-        <v>976562500</v>
-      </c>
-      <c r="C12" s="18">
-        <f t="shared" si="4"/>
-        <v>62793.370627572011</v>
-      </c>
-      <c r="D12" s="16">
-        <f t="shared" si="8"/>
-        <v>4.32</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="5"/>
-        <v>11.05275</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>0.46053125</v>
-      </c>
-      <c r="M12" s="18">
-        <f t="shared" si="1"/>
-        <v>2929687500</v>
-      </c>
-      <c r="N12" s="18">
-        <f t="shared" si="2"/>
-        <v>1171875000</v>
+        <v>234375000</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="6"/>
-        <v>1.3744803133596051</v>
+        <f t="shared" si="7"/>
+        <v>1.6761955040970795</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="16">
+        <f t="shared" si="0"/>
+        <v>976562500</v>
+      </c>
+      <c r="C13" s="16">
+        <f t="shared" si="5"/>
+        <v>62793.370627572011</v>
+      </c>
+      <c r="D13" s="14">
+        <f t="shared" si="9"/>
+        <v>4.32</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="6"/>
+        <v>11.05275</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>0.46053125</v>
+      </c>
+      <c r="M13" s="16">
+        <f t="shared" si="2"/>
+        <v>2929687500</v>
+      </c>
+      <c r="N13" s="16">
         <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="B13" s="18">
-        <f>B12*I$2</f>
-        <v>4882812500</v>
-      </c>
-      <c r="C13" s="18">
-        <f t="shared" si="4"/>
-        <v>209311.23542524007</v>
-      </c>
-      <c r="D13" s="16">
-        <f t="shared" si="8"/>
-        <v>6.48</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="5"/>
-        <v>17.53275</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>0.73053124999999997</v>
-      </c>
-      <c r="M13" s="18">
-        <f t="shared" si="1"/>
-        <v>14648437500</v>
-      </c>
-      <c r="N13" s="18">
-        <f t="shared" si="2"/>
-        <v>5859375000</v>
+        <v>1171875000</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="6"/>
-        <v>1.1270738569548762</v>
+        <f t="shared" si="7"/>
+        <v>1.3744803133596051</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="16">
+        <f t="shared" si="0"/>
+        <v>4882812500</v>
+      </c>
+      <c r="C14" s="16">
+        <f t="shared" si="5"/>
+        <v>209311.23542524007</v>
+      </c>
+      <c r="D14" s="14">
+        <f t="shared" si="9"/>
+        <v>6.48</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="6"/>
+        <v>17.53275</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>0.73053124999999997</v>
+      </c>
+      <c r="M14" s="16">
+        <f t="shared" si="2"/>
+        <v>14648437500</v>
+      </c>
+      <c r="N14" s="16">
         <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-      <c r="B14" s="18">
-        <f>B13*I$2</f>
-        <v>24414062500</v>
-      </c>
-      <c r="C14" s="18">
-        <f t="shared" si="4"/>
-        <v>697704.11808413349</v>
-      </c>
-      <c r="D14" s="16">
-        <f t="shared" si="8"/>
-        <v>9.7200000000000006</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="5"/>
-        <v>27.252749999999999</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>1.1355312499999999</v>
-      </c>
-      <c r="M14" s="18">
-        <f t="shared" si="1"/>
-        <v>73242187500</v>
-      </c>
-      <c r="N14" s="18">
-        <f t="shared" si="2"/>
-        <v>29296875000</v>
+        <v>5859375000</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="6"/>
-        <v>0.92420056270299844</v>
+        <f t="shared" si="7"/>
+        <v>1.1270738569548762</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="16">
+        <f t="shared" si="0"/>
+        <v>24414062500</v>
+      </c>
+      <c r="C15" s="16">
+        <f t="shared" si="5"/>
+        <v>697704.11808413349</v>
+      </c>
+      <c r="D15" s="14">
+        <f t="shared" si="9"/>
+        <v>9.7200000000000006</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="6"/>
+        <v>27.252749999999999</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>1.1355312499999999</v>
+      </c>
+      <c r="M15" s="16">
+        <f t="shared" si="2"/>
+        <v>73242187500</v>
+      </c>
+      <c r="N15" s="16">
         <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="B15" s="18">
-        <f>B14*I$2</f>
-        <v>122070312500</v>
-      </c>
-      <c r="C15" s="18">
-        <f t="shared" si="4"/>
-        <v>2325680.3936137781</v>
-      </c>
-      <c r="D15" s="16">
-        <f t="shared" si="8"/>
-        <v>14.580000000000002</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="5"/>
-        <v>41.832750000000004</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>1.7430312500000003</v>
-      </c>
-      <c r="M15" s="18">
-        <f t="shared" si="1"/>
-        <v>366210937500</v>
-      </c>
-      <c r="N15" s="18">
-        <f t="shared" si="2"/>
-        <v>146484375000</v>
+        <v>29296875000</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="6"/>
-        <v>0.75784446141645867</v>
+        <f t="shared" si="7"/>
+        <v>0.92420056270299844</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="16">
+        <f t="shared" si="0"/>
+        <v>122070312500</v>
+      </c>
+      <c r="C16" s="16">
+        <f t="shared" si="5"/>
+        <v>2325680.3936137781</v>
+      </c>
+      <c r="D16" s="14">
+        <f t="shared" si="9"/>
+        <v>14.580000000000002</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="6"/>
+        <v>41.832750000000004</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>1.7430312500000003</v>
+      </c>
+      <c r="M16" s="16">
+        <f t="shared" si="2"/>
+        <v>366210937500</v>
+      </c>
+      <c r="N16" s="16">
         <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="B16" s="18">
-        <f>B15*I$2</f>
-        <v>610351562500</v>
-      </c>
-      <c r="C16" s="18">
-        <f t="shared" si="4"/>
-        <v>7752267.9787125932</v>
-      </c>
-      <c r="D16" s="16">
-        <f t="shared" si="8"/>
-        <v>21.870000000000005</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="5"/>
-        <v>63.702750000000009</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>2.6542812500000004</v>
-      </c>
-      <c r="M16" s="18">
-        <f t="shared" si="1"/>
-        <v>1831054687500</v>
-      </c>
-      <c r="N16" s="18">
-        <f t="shared" si="2"/>
-        <v>732421875000</v>
+        <v>146484375000</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="6"/>
-        <v>0.62143245836149608</v>
+        <f t="shared" si="7"/>
+        <v>0.75784446141645867</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="16">
+        <f t="shared" si="0"/>
+        <v>610351562500</v>
+      </c>
+      <c r="C17" s="16">
+        <f t="shared" si="5"/>
+        <v>7752267.9787125932</v>
+      </c>
+      <c r="D17" s="14">
+        <f t="shared" si="9"/>
+        <v>21.870000000000005</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="6"/>
+        <v>63.702750000000009</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>2.6542812500000004</v>
+      </c>
+      <c r="M17" s="16">
+        <f t="shared" si="2"/>
+        <v>1831054687500</v>
+      </c>
+      <c r="N17" s="16">
         <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="B17" s="18">
-        <f>B16*I$2</f>
-        <v>3051757812500</v>
-      </c>
-      <c r="C17" s="18">
-        <f t="shared" si="4"/>
-        <v>35237581.721420877</v>
-      </c>
-      <c r="D17">
-        <f t="shared" ref="D17:D55" si="9">D16*1.1</f>
-        <v>24.057000000000006</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="5"/>
-        <v>87.759750000000011</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>3.6566562500000006</v>
-      </c>
-      <c r="M17" s="18">
-        <f t="shared" si="1"/>
-        <v>9155273437500</v>
-      </c>
-      <c r="N17" s="18">
-        <f t="shared" si="2"/>
-        <v>3662109375000</v>
+        <v>732421875000</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="6"/>
-        <v>0.50957461585642672</v>
+        <f t="shared" si="7"/>
+        <v>0.62143245836149608</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="16">
+        <f t="shared" si="0"/>
+        <v>3051757812500</v>
+      </c>
+      <c r="C18" s="16">
+        <f t="shared" si="5"/>
+        <v>35237581.721420877</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ref="D18:D56" si="10">D17*1.1</f>
+        <v>24.057000000000006</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="6"/>
+        <v>87.759750000000011</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>3.6566562500000006</v>
+      </c>
+      <c r="M18" s="16">
+        <f t="shared" si="2"/>
+        <v>9155273437500</v>
+      </c>
+      <c r="N18" s="16">
         <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="B18" s="18">
-        <f>B17*I$2</f>
-        <v>15258789062500</v>
-      </c>
-      <c r="C18" s="18">
-        <f t="shared" si="4"/>
-        <v>160170826.00645852</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="9"/>
-        <v>26.462700000000009</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="5"/>
-        <v>114.22245000000002</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="0"/>
-        <v>4.7592687500000013</v>
-      </c>
-      <c r="M18" s="18">
-        <f t="shared" si="1"/>
-        <v>45776367187500</v>
-      </c>
-      <c r="N18" s="18">
-        <f t="shared" si="2"/>
-        <v>18310546875000</v>
+        <v>3662109375000</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="6"/>
-        <v>0.41785118500226986</v>
+        <f t="shared" si="7"/>
+        <v>0.50957461585642672</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="16">
+        <f t="shared" si="0"/>
+        <v>15258789062500</v>
+      </c>
+      <c r="C19" s="16">
+        <f t="shared" si="5"/>
+        <v>160170826.00645852</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="10"/>
+        <v>26.462700000000009</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="6"/>
+        <v>114.22245000000002</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>4.7592687500000013</v>
+      </c>
+      <c r="M19" s="16">
+        <f t="shared" si="2"/>
+        <v>45776367187500</v>
+      </c>
+      <c r="N19" s="16">
         <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="B19" s="18">
-        <f>B18*I$2</f>
-        <v>76293945312500</v>
-      </c>
-      <c r="C19" s="18">
-        <f t="shared" si="4"/>
-        <v>728049209.12026584</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="9"/>
-        <v>29.108970000000014</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="5"/>
-        <v>143.33142000000004</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="0"/>
-        <v>5.9721425000000012</v>
-      </c>
-      <c r="M19" s="18">
-        <f t="shared" si="1"/>
-        <v>228881835937500</v>
-      </c>
-      <c r="N19" s="18">
-        <f t="shared" si="2"/>
-        <v>91552734375000</v>
+        <v>18310546875000</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="6"/>
-        <v>0.34263797170186128</v>
+        <f t="shared" si="7"/>
+        <v>0.41785118500226986</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="16">
+        <f t="shared" si="0"/>
+        <v>76293945312500</v>
+      </c>
+      <c r="C20" s="16">
+        <f t="shared" si="5"/>
+        <v>728049209.12026584</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="10"/>
+        <v>29.108970000000014</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="6"/>
+        <v>143.33142000000004</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>5.9721425000000012</v>
+      </c>
+      <c r="M20" s="16">
+        <f t="shared" si="2"/>
+        <v>228881835937500</v>
+      </c>
+      <c r="N20" s="16">
         <f t="shared" si="3"/>
-        <v>19</v>
-      </c>
-      <c r="B20" s="18">
-        <f>B19*I$2</f>
-        <v>381469726562500</v>
-      </c>
-      <c r="C20" s="18">
-        <f t="shared" si="4"/>
-        <v>3309314586.9102988</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="9"/>
-        <v>32.019867000000019</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="5"/>
-        <v>175.35128700000007</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="0"/>
-        <v>7.3063036250000026</v>
-      </c>
-      <c r="M20" s="18">
-        <f t="shared" si="1"/>
-        <v>1144409179687500</v>
-      </c>
-      <c r="N20" s="18">
-        <f t="shared" si="2"/>
-        <v>457763671875000</v>
+        <v>91552734375000</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="6"/>
-        <v>0.2809631367955262</v>
+        <f t="shared" si="7"/>
+        <v>0.34263797170186128</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="16">
+        <f t="shared" si="0"/>
+        <v>381469726562500</v>
+      </c>
+      <c r="C21" s="16">
+        <f t="shared" si="5"/>
+        <v>3309314586.9102988</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="10"/>
+        <v>32.019867000000019</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="6"/>
+        <v>175.35128700000007</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>7.3063036250000026</v>
+      </c>
+      <c r="M21" s="16">
+        <f t="shared" si="2"/>
+        <v>1144409179687500</v>
+      </c>
+      <c r="N21" s="16">
         <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="B21" s="18">
-        <f>B20*I$2</f>
-        <v>1907348632812500</v>
-      </c>
-      <c r="C21" s="18">
-        <f t="shared" si="4"/>
-        <v>15042339031.410448</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="9"/>
-        <v>35.221853700000025</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="5"/>
-        <v>210.5731407000001</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="0"/>
-        <v>8.773880862500004</v>
-      </c>
-      <c r="M21" s="18">
-        <f t="shared" si="1"/>
-        <v>5722045898437500</v>
-      </c>
-      <c r="N21" s="18">
-        <f t="shared" si="2"/>
-        <v>2288818359375000</v>
+        <v>457763671875000</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="6"/>
-        <v>0.23038977217233148</v>
+        <f t="shared" si="7"/>
+        <v>0.2809631367955262</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="16">
+        <f t="shared" si="0"/>
+        <v>1907348632812500</v>
+      </c>
+      <c r="C22" s="16">
+        <f t="shared" si="5"/>
+        <v>15042339031.410448</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="10"/>
+        <v>35.221853700000025</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="6"/>
+        <v>210.5731407000001</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>8.773880862500004</v>
+      </c>
+      <c r="M22" s="16">
+        <f t="shared" si="2"/>
+        <v>5722045898437500</v>
+      </c>
+      <c r="N22" s="16">
         <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-      <c r="B22" s="18">
-        <f>B21*I$2</f>
-        <v>9536743164062500</v>
-      </c>
-      <c r="C22" s="18">
-        <f t="shared" si="4"/>
-        <v>68374268324.592941</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="9"/>
-        <v>38.744039070000028</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="5"/>
-        <v>249.31717977000011</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="0"/>
-        <v>10.388215823750004</v>
-      </c>
-      <c r="M22" s="18">
-        <f t="shared" si="1"/>
-        <v>2.86102294921875E+16</v>
-      </c>
-      <c r="N22" s="18">
-        <f t="shared" si="2"/>
-        <v>1.1444091796875E+16</v>
+        <v>2288818359375000</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="6"/>
-        <v>0.18891961318131179</v>
+        <f t="shared" si="7"/>
+        <v>0.23038977217233148</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="16">
+        <f t="shared" si="0"/>
+        <v>9536743164062500</v>
+      </c>
+      <c r="C23" s="16">
+        <f t="shared" si="5"/>
+        <v>68374268324.592941</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="10"/>
+        <v>38.744039070000028</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="6"/>
+        <v>249.31717977000011</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>10.388215823750004</v>
+      </c>
+      <c r="M23" s="16">
+        <f t="shared" si="2"/>
+        <v>2.86102294921875E+16</v>
+      </c>
+      <c r="N23" s="16">
         <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-      <c r="B23" s="18">
-        <f>B22*I$2</f>
-        <v>4.7683715820312496E+16</v>
-      </c>
-      <c r="C23" s="18">
-        <f t="shared" si="4"/>
-        <v>310792128748.14966</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="9"/>
-        <v>42.618442977000036</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="5"/>
-        <v>291.93562274700014</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="0"/>
-        <v>12.163984281125005</v>
-      </c>
-      <c r="M23" s="18">
-        <f t="shared" si="1"/>
-        <v>1.4305114746093749E+17</v>
-      </c>
-      <c r="N23" s="18">
-        <f t="shared" si="2"/>
-        <v>5.7220458984374992E+16</v>
+        <v>1.1444091796875E+16</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="6"/>
-        <v>0.15491408280867566</v>
+        <f t="shared" si="7"/>
+        <v>0.18891961318131179</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="16">
+        <f t="shared" si="0"/>
+        <v>4.7683715820312496E+16</v>
+      </c>
+      <c r="C24" s="16">
+        <f t="shared" si="5"/>
+        <v>310792128748.14966</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="10"/>
+        <v>42.618442977000036</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="6"/>
+        <v>291.93562274700014</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>12.163984281125005</v>
+      </c>
+      <c r="M24" s="16">
+        <f t="shared" si="2"/>
+        <v>1.4305114746093749E+17</v>
+      </c>
+      <c r="N24" s="16">
         <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-      <c r="B24" s="18">
-        <f>B23*I$2</f>
-        <v>2.384185791015625E+17</v>
-      </c>
-      <c r="C24" s="18">
-        <f t="shared" si="4"/>
-        <v>1412691494309.7712</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="9"/>
-        <v>46.880287274700045</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="5"/>
-        <v>338.81591002170018</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="0"/>
-        <v>14.117329584237508</v>
-      </c>
-      <c r="M24" s="18">
-        <f t="shared" si="1"/>
-        <v>7.1525573730468749E+17</v>
-      </c>
-      <c r="N24" s="18">
-        <f t="shared" si="2"/>
-        <v>2.8610229492187498E+17</v>
+        <v>5.7220458984374992E+16</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="6"/>
-        <v>0.12702954790311405</v>
+        <f t="shared" si="7"/>
+        <v>0.15491408280867566</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="16">
+        <f t="shared" si="0"/>
+        <v>2.384185791015625E+17</v>
+      </c>
+      <c r="C25" s="16">
+        <f t="shared" si="5"/>
+        <v>1412691494309.7712</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="10"/>
+        <v>46.880287274700045</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="6"/>
+        <v>338.81591002170018</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>14.117329584237508</v>
+      </c>
+      <c r="M25" s="16">
+        <f t="shared" si="2"/>
+        <v>7.1525573730468749E+17</v>
+      </c>
+      <c r="N25" s="16">
         <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="B25" s="18">
-        <f>B24*I$2</f>
-        <v>1.1920928955078124E+18</v>
-      </c>
-      <c r="C25" s="18">
-        <f t="shared" si="4"/>
-        <v>6421324974135.3232</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="9"/>
-        <v>51.56831600217005</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="5"/>
-        <v>390.38422602387021</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="0"/>
-        <v>16.266009417661259</v>
-      </c>
-      <c r="M25" s="18">
-        <f t="shared" si="1"/>
-        <v>3.5762786865234371E+18</v>
-      </c>
-      <c r="N25" s="18">
-        <f t="shared" si="2"/>
-        <v>1.4305114746093747E+18</v>
+        <v>2.8610229492187498E+17</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="6"/>
-        <v>0.10416422928055351</v>
+        <f t="shared" si="7"/>
+        <v>0.12702954790311405</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="16">
+        <f t="shared" si="0"/>
+        <v>1.1920928955078124E+18</v>
+      </c>
+      <c r="C26" s="16">
+        <f t="shared" si="5"/>
+        <v>6421324974135.3232</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="10"/>
+        <v>51.56831600217005</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="6"/>
+        <v>390.38422602387021</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>16.266009417661259</v>
+      </c>
+      <c r="M26" s="16">
+        <f t="shared" si="2"/>
+        <v>3.5762786865234371E+18</v>
+      </c>
+      <c r="N26" s="16">
         <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="B26" s="18">
-        <f>B25*I$2</f>
-        <v>5.9604644775390618E+18</v>
-      </c>
-      <c r="C26" s="18">
-        <f t="shared" si="4"/>
-        <v>29187840791524.191</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="9"/>
-        <v>56.725147602387061</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="5"/>
-        <v>447.10937362625725</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="0"/>
-        <v>18.629557234427384</v>
-      </c>
-      <c r="M26" s="18">
-        <f t="shared" si="1"/>
-        <v>1.7881393432617185E+19</v>
-      </c>
-      <c r="N26" s="18">
-        <f t="shared" si="2"/>
-        <v>7.1525573730468741E+18</v>
+        <v>1.4305114746093747E+18</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="6"/>
-        <v>8.5414668010053874E-2</v>
+        <f t="shared" si="7"/>
+        <v>0.10416422928055351</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="16">
+        <f t="shared" si="0"/>
+        <v>5.9604644775390618E+18</v>
+      </c>
+      <c r="C27" s="16">
+        <f t="shared" si="5"/>
+        <v>29187840791524.191</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="10"/>
+        <v>56.725147602387061</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="6"/>
+        <v>447.10937362625725</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>18.629557234427384</v>
+      </c>
+      <c r="M27" s="16">
+        <f t="shared" si="2"/>
+        <v>1.7881393432617185E+19</v>
+      </c>
+      <c r="N27" s="16">
         <f t="shared" si="3"/>
-        <v>26</v>
-      </c>
-      <c r="B27" s="18">
-        <f>B26*I$2</f>
-        <v>2.9802322387695309E+19</v>
-      </c>
-      <c r="C27" s="18">
-        <f t="shared" si="4"/>
-        <v>132672003597837.23</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="9"/>
-        <v>62.397662362625773</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="5"/>
-        <v>509.50703598888305</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="0"/>
-        <v>21.229459832870127</v>
-      </c>
-      <c r="M27" s="18">
-        <f t="shared" si="1"/>
-        <v>8.940696716308593E+19</v>
-      </c>
-      <c r="N27" s="18">
-        <f t="shared" si="2"/>
-        <v>3.5762786865234371E+19</v>
+        <v>7.1525573730468741E+18</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="6"/>
-        <v>7.0040027768244167E-2</v>
+        <f t="shared" si="7"/>
+        <v>8.5414668010053874E-2</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="16">
+        <f t="shared" si="0"/>
+        <v>2.9802322387695309E+19</v>
+      </c>
+      <c r="C28" s="16">
+        <f t="shared" si="5"/>
+        <v>132672003597837.23</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="10"/>
+        <v>62.397662362625773</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="6"/>
+        <v>509.50703598888305</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>21.229459832870127</v>
+      </c>
+      <c r="M28" s="16">
+        <f t="shared" si="2"/>
+        <v>8.940696716308593E+19</v>
+      </c>
+      <c r="N28" s="16">
         <f t="shared" si="3"/>
-        <v>27</v>
-      </c>
-      <c r="B28" s="18">
-        <f>B27*I$2</f>
-        <v>1.4901161193847656E+20</v>
-      </c>
-      <c r="C28" s="18">
-        <f t="shared" si="4"/>
-        <v>603054561808351</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="9"/>
-        <v>68.637428598888363</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="5"/>
-        <v>578.14446458777138</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="0"/>
-        <v>24.089352691157142</v>
-      </c>
-      <c r="M28" s="18">
-        <f t="shared" si="1"/>
-        <v>4.470348358154297E+20</v>
-      </c>
-      <c r="N28" s="18">
-        <f t="shared" si="2"/>
-        <v>1.7881393432617186E+20</v>
+        <v>3.5762786865234371E+19</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="6"/>
-        <v>5.7432822769960215E-2</v>
+        <f t="shared" si="7"/>
+        <v>7.0040027768244167E-2</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="16">
+        <f t="shared" si="0"/>
+        <v>1.4901161193847656E+20</v>
+      </c>
+      <c r="C29" s="16">
+        <f t="shared" si="5"/>
+        <v>603054561808351</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="10"/>
+        <v>68.637428598888363</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="6"/>
+        <v>578.14446458777138</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>24.089352691157142</v>
+      </c>
+      <c r="M29" s="16">
+        <f t="shared" si="2"/>
+        <v>4.470348358154297E+20</v>
+      </c>
+      <c r="N29" s="16">
         <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-      <c r="B29" s="18">
-        <f>B28*I$2</f>
-        <v>7.4505805969238275E+20</v>
-      </c>
-      <c r="C29" s="18">
-        <f t="shared" si="4"/>
-        <v>2741157099128867.5</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="9"/>
-        <v>75.501171458777208</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="5"/>
-        <v>653.64563604654859</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="0"/>
-        <v>27.235234835272859</v>
-      </c>
-      <c r="M29" s="18">
-        <f t="shared" si="1"/>
-        <v>2.2351741790771484E+21</v>
-      </c>
-      <c r="N29" s="18">
-        <f t="shared" si="2"/>
-        <v>8.9406967163085927E+20</v>
+        <v>1.7881393432617186E+20</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="6"/>
-        <v>4.7094914671367373E-2</v>
+        <f t="shared" si="7"/>
+        <v>5.7432822769960215E-2</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="16">
+        <f t="shared" si="0"/>
+        <v>7.4505805969238275E+20</v>
+      </c>
+      <c r="C30" s="16">
+        <f t="shared" si="5"/>
+        <v>2741157099128867.5</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="10"/>
+        <v>75.501171458777208</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="6"/>
+        <v>653.64563604654859</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>27.235234835272859</v>
+      </c>
+      <c r="M30" s="16">
+        <f t="shared" si="2"/>
+        <v>2.2351741790771484E+21</v>
+      </c>
+      <c r="N30" s="16">
         <f t="shared" si="3"/>
-        <v>29</v>
-      </c>
-      <c r="B30" s="18">
-        <f>B29*I$2</f>
-        <v>3.7252902984619136E+21</v>
-      </c>
-      <c r="C30" s="18">
-        <f t="shared" si="4"/>
-        <v>1.2459804996040306E+16</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="9"/>
-        <v>83.051288604654928</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="5"/>
-        <v>736.69692465120352</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="0"/>
-        <v>30.695705193800148</v>
-      </c>
-      <c r="M30" s="18">
-        <f t="shared" si="1"/>
-        <v>1.1175870895385741E+22</v>
-      </c>
-      <c r="N30" s="18">
-        <f t="shared" si="2"/>
-        <v>4.4703483581542962E+21</v>
+        <v>8.9406967163085927E+20</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="6"/>
-        <v>3.8617830030521244E-2</v>
+        <f t="shared" si="7"/>
+        <v>4.7094914671367373E-2</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="16">
+        <f t="shared" si="0"/>
+        <v>3.7252902984619136E+21</v>
+      </c>
+      <c r="C31" s="16">
+        <f t="shared" si="5"/>
+        <v>1.2459804996040306E+16</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="10"/>
+        <v>83.051288604654928</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="6"/>
+        <v>736.69692465120352</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>30.695705193800148</v>
+      </c>
+      <c r="M31" s="16">
+        <f t="shared" si="2"/>
+        <v>1.1175870895385741E+22</v>
+      </c>
+      <c r="N31" s="16">
         <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="B31" s="18">
-        <f>B30*I$2</f>
-        <v>1.8626451492309568E+22</v>
-      </c>
-      <c r="C31" s="18">
-        <f t="shared" si="4"/>
-        <v>5.6635477254728656E+16</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="9"/>
-        <v>91.35641746512043</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="5"/>
-        <v>828.05334211632396</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="0"/>
-        <v>34.502222588180167</v>
-      </c>
-      <c r="M31" s="18">
-        <f t="shared" si="1"/>
-        <v>5.5879354476928701E+22</v>
-      </c>
-      <c r="N31" s="18">
-        <f t="shared" si="2"/>
-        <v>2.2351741790771479E+22</v>
+        <v>4.4703483581542962E+21</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="6"/>
-        <v>3.1666620625027418E-2</v>
+        <f t="shared" si="7"/>
+        <v>3.8617830030521244E-2</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="16">
+        <f t="shared" si="0"/>
+        <v>1.8626451492309568E+22</v>
+      </c>
+      <c r="C32" s="16">
+        <f t="shared" si="5"/>
+        <v>5.6635477254728656E+16</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="10"/>
+        <v>91.35641746512043</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="6"/>
+        <v>828.05334211632396</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>34.502222588180167</v>
+      </c>
+      <c r="M32" s="16">
+        <f t="shared" si="2"/>
+        <v>5.5879354476928701E+22</v>
+      </c>
+      <c r="N32" s="16">
         <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="B32" s="18">
-        <f>B31*I$2</f>
-        <v>9.313225746154784E+22</v>
-      </c>
-      <c r="C32" s="18">
-        <f t="shared" si="4"/>
-        <v>2.5743398752149392E+17</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="9"/>
-        <v>100.49205921163248</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="5"/>
-        <v>928.54540132795648</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="0"/>
-        <v>38.689391721998184</v>
-      </c>
-      <c r="M32" s="18">
-        <f t="shared" si="1"/>
-        <v>2.7939677238464352E+23</v>
-      </c>
-      <c r="N32" s="18">
-        <f t="shared" si="2"/>
-        <v>1.117587089538574E+23</v>
+        <v>2.2351741790771479E+22</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="6"/>
-        <v>2.596662891252248E-2</v>
+        <f t="shared" si="7"/>
+        <v>3.1666620625027418E-2</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="16">
+        <f t="shared" si="0"/>
+        <v>9.313225746154784E+22</v>
+      </c>
+      <c r="C33" s="16">
+        <f t="shared" si="5"/>
+        <v>2.5743398752149392E+17</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="10"/>
+        <v>100.49205921163248</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="6"/>
+        <v>928.54540132795648</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>38.689391721998184</v>
+      </c>
+      <c r="M33" s="16">
+        <f t="shared" si="2"/>
+        <v>2.7939677238464352E+23</v>
+      </c>
+      <c r="N33" s="16">
         <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="B33" s="18">
-        <f>B32*I$2</f>
-        <v>4.6566128730773923E+23</v>
-      </c>
-      <c r="C33" s="18">
-        <f t="shared" si="4"/>
-        <v>1.1701544887340631E+18</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="9"/>
-        <v>110.54126513279574</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="5"/>
-        <v>1039.0866664607522</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="0"/>
-        <v>43.295277769198009</v>
-      </c>
-      <c r="M33" s="18">
-        <f t="shared" si="1"/>
-        <v>1.3969838619232177E+24</v>
-      </c>
-      <c r="N33" s="18">
-        <f t="shared" si="2"/>
-        <v>5.5879354476928704E+23</v>
+        <v>1.117587089538574E+23</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="6"/>
-        <v>2.1292635708268431E-2</v>
+        <f t="shared" si="7"/>
+        <v>2.596662891252248E-2</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="16">
+        <f t="shared" si="0"/>
+        <v>4.6566128730773923E+23</v>
+      </c>
+      <c r="C34" s="16">
+        <f t="shared" si="5"/>
+        <v>1.1701544887340631E+18</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="10"/>
+        <v>110.54126513279574</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="6"/>
+        <v>1039.0866664607522</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>43.295277769198009</v>
+      </c>
+      <c r="M34" s="16">
+        <f t="shared" si="2"/>
+        <v>1.3969838619232177E+24</v>
+      </c>
+      <c r="N34" s="16">
         <f t="shared" si="3"/>
-        <v>33</v>
-      </c>
-      <c r="B34" s="18">
-        <f>B33*I$2</f>
-        <v>2.3283064365386962E+24</v>
-      </c>
-      <c r="C34" s="18">
-        <f t="shared" si="4"/>
-        <v>5.3188840397002865E+18</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="9"/>
-        <v>121.59539164607533</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="5"/>
-        <v>1160.6820581068275</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="0"/>
-        <v>48.361752421117814</v>
-      </c>
-      <c r="M34" s="18">
-        <f t="shared" si="1"/>
-        <v>6.9849193096160882E+24</v>
-      </c>
-      <c r="N34" s="18">
-        <f t="shared" si="2"/>
-        <v>2.7939677238464354E+24</v>
+        <v>5.5879354476928704E+23</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="6"/>
-        <v>1.7459961280780111E-2</v>
+        <f t="shared" si="7"/>
+        <v>2.1292635708268431E-2</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="16">
+        <f t="shared" si="0"/>
+        <v>2.3283064365386962E+24</v>
+      </c>
+      <c r="C35" s="16">
+        <f t="shared" si="5"/>
+        <v>5.3188840397002865E+18</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="10"/>
+        <v>121.59539164607533</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="6"/>
+        <v>1160.6820581068275</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>48.361752421117814</v>
+      </c>
+      <c r="M35" s="16">
+        <f t="shared" si="2"/>
+        <v>6.9849193096160882E+24</v>
+      </c>
+      <c r="N35" s="16">
         <f t="shared" si="3"/>
-        <v>34</v>
-      </c>
-      <c r="B35" s="18">
-        <f>B34*I$2</f>
-        <v>1.1641532182693481E+25</v>
-      </c>
-      <c r="C35" s="18">
-        <f t="shared" si="4"/>
-        <v>2.4176745635001299E+19</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="9"/>
-        <v>133.75493081068288</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="5"/>
-        <v>1294.4369889175105</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="0"/>
-        <v>53.9348745382296</v>
-      </c>
-      <c r="M35" s="18">
-        <f t="shared" si="1"/>
-        <v>3.4924596548080443E+25</v>
-      </c>
-      <c r="N35" s="18">
-        <f t="shared" si="2"/>
-        <v>1.3969838619232176E+25</v>
+        <v>2.7939677238464354E+24</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="6"/>
-        <v>1.431716825023969E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.7459961280780111E-2</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="B36" s="16">
+        <f t="shared" ref="B36:B67" si="11">B35*I$3</f>
+        <v>1.1641532182693481E+25</v>
+      </c>
+      <c r="C36" s="16">
+        <f t="shared" si="5"/>
+        <v>2.4176745635001299E+19</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="10"/>
+        <v>133.75493081068288</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="6"/>
+        <v>1294.4369889175105</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>53.9348745382296</v>
+      </c>
+      <c r="M36" s="16">
+        <f t="shared" si="2"/>
+        <v>3.4924596548080443E+25</v>
+      </c>
+      <c r="N36" s="16">
         <f t="shared" si="3"/>
-        <v>35</v>
-      </c>
-      <c r="B36" s="18">
-        <f>B35*I$2</f>
-        <v>5.8207660913467401E+25</v>
-      </c>
-      <c r="C36" s="18">
-        <f t="shared" si="4"/>
-        <v>1.0989429834091499E+20</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="9"/>
-        <v>147.13042389175118</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="5"/>
-        <v>1441.5674128092617</v>
-      </c>
-      <c r="F36">
-        <f t="shared" si="0"/>
-        <v>60.065308867052572</v>
-      </c>
-      <c r="M36" s="18">
-        <f t="shared" si="1"/>
-        <v>1.7462298274040222E+26</v>
-      </c>
-      <c r="N36" s="18">
-        <f t="shared" si="2"/>
-        <v>6.9849193096160878E+25</v>
+        <v>1.3969838619232176E+25</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="6"/>
-        <v>1.1740077965196546E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.431716825023969E-2</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="B37" s="16">
+        <f t="shared" si="11"/>
+        <v>5.8207660913467401E+25</v>
+      </c>
+      <c r="C37" s="16">
+        <f t="shared" si="5"/>
+        <v>1.0989429834091499E+20</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="10"/>
+        <v>147.13042389175118</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="6"/>
+        <v>1441.5674128092617</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>60.065308867052572</v>
+      </c>
+      <c r="M37" s="16">
+        <f t="shared" si="2"/>
+        <v>1.7462298274040222E+26</v>
+      </c>
+      <c r="N37" s="16">
         <f t="shared" si="3"/>
-        <v>36</v>
-      </c>
-      <c r="B37" s="18">
-        <f>B36*I$2</f>
-        <v>2.9103830456733699E+26</v>
-      </c>
-      <c r="C37" s="18">
-        <f t="shared" si="4"/>
-        <v>4.9951953791324973E+20</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="9"/>
-        <v>161.84346628092632</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="5"/>
-        <v>1603.410879090188</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="0"/>
-        <v>66.808786628757829</v>
-      </c>
-      <c r="M37" s="18">
-        <f t="shared" si="1"/>
-        <v>8.7311491370201103E+26</v>
-      </c>
-      <c r="N37" s="18">
-        <f t="shared" si="2"/>
-        <v>3.4924596548080437E+26</v>
+        <v>6.9849193096160878E+25</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="6"/>
-        <v>9.6268639314611663E-3</v>
+        <f t="shared" si="7"/>
+        <v>1.1740077965196546E-2</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="B38" s="16">
+        <f t="shared" si="11"/>
+        <v>2.9103830456733699E+26</v>
+      </c>
+      <c r="C38" s="16">
+        <f t="shared" si="5"/>
+        <v>4.9951953791324973E+20</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="10"/>
+        <v>161.84346628092632</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="6"/>
+        <v>1603.410879090188</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>66.808786628757829</v>
+      </c>
+      <c r="M38" s="16">
+        <f t="shared" si="2"/>
+        <v>8.7311491370201103E+26</v>
+      </c>
+      <c r="N38" s="16">
         <f t="shared" si="3"/>
-        <v>37</v>
-      </c>
-      <c r="B38" s="18">
-        <f>B37*I$2</f>
-        <v>1.4551915228366849E+27</v>
-      </c>
-      <c r="C38" s="18">
-        <f t="shared" si="4"/>
-        <v>2.2705433541511353E+21</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="9"/>
-        <v>178.02781290901896</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="5"/>
-        <v>1781.4386919992071</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="0"/>
-        <v>74.226612166633629</v>
-      </c>
-      <c r="M38" s="18">
-        <f t="shared" si="1"/>
-        <v>4.3655745685100546E+27</v>
-      </c>
-      <c r="N38" s="18">
-        <f t="shared" si="2"/>
-        <v>1.7462298274040218E+27</v>
+        <v>3.4924596548080437E+26</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="6"/>
-        <v>7.8940284237981554E-3</v>
+        <f t="shared" si="7"/>
+        <v>9.6268639314611663E-3</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39">
+        <f t="shared" si="4"/>
+        <v>37</v>
+      </c>
+      <c r="B39" s="16">
+        <f t="shared" si="11"/>
+        <v>1.4551915228366849E+27</v>
+      </c>
+      <c r="C39" s="16">
+        <f t="shared" si="5"/>
+        <v>2.2705433541511353E+21</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="10"/>
+        <v>178.02781290901896</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="6"/>
+        <v>1781.4386919992071</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>74.226612166633629</v>
+      </c>
+      <c r="M39" s="16">
+        <f t="shared" si="2"/>
+        <v>4.3655745685100546E+27</v>
+      </c>
+      <c r="N39" s="16">
         <f t="shared" si="3"/>
-        <v>38</v>
-      </c>
-      <c r="B39" s="18">
-        <f>B38*I$2</f>
-        <v>7.2759576141834244E+27</v>
-      </c>
-      <c r="C39" s="18">
-        <f t="shared" si="4"/>
-        <v>1.0320651609777885E+22</v>
-      </c>
-      <c r="D39">
-        <f t="shared" si="9"/>
-        <v>195.83059419992088</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="5"/>
-        <v>1977.2692861991279</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="0"/>
-        <v>82.386220258297001</v>
-      </c>
-      <c r="M39" s="18">
-        <f t="shared" si="1"/>
-        <v>2.1827872842550273E+28</v>
-      </c>
-      <c r="N39" s="18">
-        <f t="shared" si="2"/>
-        <v>8.7311491370201092E+27</v>
+        <v>1.7462298274040218E+27</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="6"/>
-        <v>6.473103307514487E-3</v>
+        <f t="shared" si="7"/>
+        <v>7.8940284237981554E-3</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40">
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+      <c r="B40" s="16">
+        <f t="shared" si="11"/>
+        <v>7.2759576141834244E+27</v>
+      </c>
+      <c r="C40" s="16">
+        <f t="shared" si="5"/>
+        <v>1.0320651609777885E+22</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="10"/>
+        <v>195.83059419992088</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="6"/>
+        <v>1977.2692861991279</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="1"/>
+        <v>82.386220258297001</v>
+      </c>
+      <c r="M40" s="16">
+        <f t="shared" si="2"/>
+        <v>2.1827872842550273E+28</v>
+      </c>
+      <c r="N40" s="16">
         <f t="shared" si="3"/>
-        <v>39</v>
-      </c>
-      <c r="B40" s="18">
-        <f>B39*I$2</f>
-        <v>3.6379788070917122E+28</v>
-      </c>
-      <c r="C40" s="18">
-        <f t="shared" si="4"/>
-        <v>4.6912052771717655E+22</v>
-      </c>
-      <c r="D40">
-        <f t="shared" si="9"/>
-        <v>215.41365361991299</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="5"/>
-        <v>2192.6829398190407</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="0"/>
-        <v>91.361789159126701</v>
-      </c>
-      <c r="M40" s="18">
-        <f t="shared" si="1"/>
-        <v>1.0913936421275136E+29</v>
-      </c>
-      <c r="N40" s="18">
-        <f t="shared" si="2"/>
-        <v>4.3655745685100546E+28</v>
+        <v>8.7311491370201092E+27</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="6"/>
-        <v>5.3079447121618792E-3</v>
+        <f t="shared" si="7"/>
+        <v>6.473103307514487E-3</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41">
+        <f t="shared" si="4"/>
+        <v>39</v>
+      </c>
+      <c r="B41" s="16">
+        <f t="shared" si="11"/>
+        <v>3.6379788070917122E+28</v>
+      </c>
+      <c r="C41" s="16">
+        <f t="shared" si="5"/>
+        <v>4.6912052771717655E+22</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="10"/>
+        <v>215.41365361991299</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="6"/>
+        <v>2192.6829398190407</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="1"/>
+        <v>91.361789159126701</v>
+      </c>
+      <c r="M41" s="16">
+        <f t="shared" si="2"/>
+        <v>1.0913936421275136E+29</v>
+      </c>
+      <c r="N41" s="16">
         <f t="shared" si="3"/>
-        <v>40</v>
-      </c>
-      <c r="B41" s="18">
-        <f>B40*I$2</f>
-        <v>1.8189894035458561E+29</v>
-      </c>
-      <c r="C41" s="18">
-        <f t="shared" si="4"/>
-        <v>2.1323660350780752E+23</v>
-      </c>
-      <c r="D41">
-        <f t="shared" si="9"/>
-        <v>236.95501898190432</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="5"/>
-        <v>2429.6379588009449</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="0"/>
-        <v>101.23491495003937</v>
-      </c>
-      <c r="M41" s="18">
-        <f t="shared" si="1"/>
-        <v>5.4569682106375684E+29</v>
-      </c>
-      <c r="N41" s="18">
-        <f t="shared" si="2"/>
-        <v>2.1827872842550272E+29</v>
+        <v>4.3655745685100546E+28</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="6"/>
-        <v>4.3525146639727405E-3</v>
+        <f t="shared" si="7"/>
+        <v>5.3079447121618792E-3</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="B42" s="16">
+        <f t="shared" si="11"/>
+        <v>1.8189894035458561E+29</v>
+      </c>
+      <c r="C42" s="16">
+        <f t="shared" si="5"/>
+        <v>2.1323660350780752E+23</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="10"/>
+        <v>236.95501898190432</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="6"/>
+        <v>2429.6379588009449</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="1"/>
+        <v>101.23491495003937</v>
+      </c>
+      <c r="M42" s="16">
+        <f t="shared" si="2"/>
+        <v>5.4569682106375684E+29</v>
+      </c>
+      <c r="N42" s="16">
         <f t="shared" si="3"/>
-        <v>41</v>
-      </c>
-      <c r="B42" s="18">
-        <f>B41*I$2</f>
-        <v>9.0949470177292814E+29</v>
-      </c>
-      <c r="C42" s="18">
-        <f t="shared" si="4"/>
-        <v>9.692572886718525E+23</v>
-      </c>
-      <c r="D42">
-        <f t="shared" si="9"/>
-        <v>260.65052088009475</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="5"/>
-        <v>2690.2884796810395</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="0"/>
-        <v>112.09535332004332</v>
-      </c>
-      <c r="M42" s="18">
-        <f t="shared" si="1"/>
-        <v>2.7284841053187844E+30</v>
-      </c>
-      <c r="N42" s="18">
-        <f t="shared" si="2"/>
-        <v>1.0913936421275137E+30</v>
+        <v>2.1827872842550272E+29</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="6"/>
-        <v>3.5690620244576469E-3</v>
+        <f t="shared" si="7"/>
+        <v>4.3525146639727405E-3</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="B43" s="16">
+        <f t="shared" si="11"/>
+        <v>9.0949470177292814E+29</v>
+      </c>
+      <c r="C43" s="16">
+        <f t="shared" si="5"/>
+        <v>9.692572886718525E+23</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="10"/>
+        <v>260.65052088009475</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="6"/>
+        <v>2690.2884796810395</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="1"/>
+        <v>112.09535332004332</v>
+      </c>
+      <c r="M43" s="16">
+        <f t="shared" si="2"/>
+        <v>2.7284841053187844E+30</v>
+      </c>
+      <c r="N43" s="16">
         <f t="shared" si="3"/>
-        <v>42</v>
-      </c>
-      <c r="B43" s="18">
-        <f>B42*I$2</f>
-        <v>4.5474735088646407E+30</v>
-      </c>
-      <c r="C43" s="18">
-        <f t="shared" si="4"/>
-        <v>4.4057149485084199E+24</v>
-      </c>
-      <c r="D43">
-        <f t="shared" si="9"/>
-        <v>286.71557296810425</v>
-      </c>
-      <c r="E43">
-        <f t="shared" si="5"/>
-        <v>2977.0040526491439</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="0"/>
-        <v>124.04183552704767</v>
-      </c>
-      <c r="M43" s="18">
-        <f t="shared" si="1"/>
-        <v>1.3642420526593922E+31</v>
-      </c>
-      <c r="N43" s="18">
-        <f t="shared" si="2"/>
-        <v>5.4569682106375688E+30</v>
+        <v>1.0913936421275137E+30</v>
       </c>
       <c r="Q43">
-        <f t="shared" si="6"/>
-        <v>2.9266308600552704E-3</v>
+        <f t="shared" si="7"/>
+        <v>3.5690620244576469E-3</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="B44" s="16">
+        <f t="shared" si="11"/>
+        <v>4.5474735088646407E+30</v>
+      </c>
+      <c r="C44" s="16">
+        <f t="shared" si="5"/>
+        <v>4.4057149485084199E+24</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="10"/>
+        <v>286.71557296810425</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="6"/>
+        <v>2977.0040526491439</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="1"/>
+        <v>124.04183552704767</v>
+      </c>
+      <c r="M44" s="16">
+        <f t="shared" si="2"/>
+        <v>1.3642420526593922E+31</v>
+      </c>
+      <c r="N44" s="16">
         <f t="shared" si="3"/>
-        <v>43</v>
-      </c>
-      <c r="B44" s="18">
-        <f>B43*I$2</f>
-        <v>2.2737367544323203E+31</v>
-      </c>
-      <c r="C44" s="18">
-        <f t="shared" si="4"/>
-        <v>2.0025977038674634E+25</v>
-      </c>
-      <c r="D44">
-        <f t="shared" si="9"/>
-        <v>315.38713026491473</v>
-      </c>
-      <c r="E44">
-        <f t="shared" si="5"/>
-        <v>3292.3911829140588</v>
-      </c>
-      <c r="F44">
-        <f t="shared" si="0"/>
-        <v>137.18296595475246</v>
-      </c>
-      <c r="M44" s="18">
-        <f t="shared" si="1"/>
-        <v>6.8212102632969606E+31</v>
-      </c>
-      <c r="N44" s="18">
-        <f t="shared" si="2"/>
-        <v>2.7284841053187844E+31</v>
+        <v>5.4569682106375688E+30</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="6"/>
-        <v>2.3998373052453218E-3</v>
+        <f t="shared" si="7"/>
+        <v>2.9266308600552704E-3</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45">
+        <f t="shared" si="4"/>
+        <v>43</v>
+      </c>
+      <c r="B45" s="16">
+        <f t="shared" si="11"/>
+        <v>2.2737367544323203E+31</v>
+      </c>
+      <c r="C45" s="16">
+        <f t="shared" si="5"/>
+        <v>2.0025977038674634E+25</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="10"/>
+        <v>315.38713026491473</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="6"/>
+        <v>3292.3911829140588</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="1"/>
+        <v>137.18296595475246</v>
+      </c>
+      <c r="M45" s="16">
+        <f t="shared" si="2"/>
+        <v>6.8212102632969606E+31</v>
+      </c>
+      <c r="N45" s="16">
         <f t="shared" si="3"/>
-        <v>44</v>
-      </c>
-      <c r="B45" s="18">
-        <f>B44*I$2</f>
-        <v>1.1368683772161602E+32</v>
-      </c>
-      <c r="C45" s="18">
-        <f t="shared" si="4"/>
-        <v>9.1027168357611963E+25</v>
-      </c>
-      <c r="D45">
-        <f t="shared" si="9"/>
-        <v>346.92584329140624</v>
-      </c>
-      <c r="E45">
-        <f t="shared" si="5"/>
-        <v>3639.317026205465</v>
-      </c>
-      <c r="F45">
-        <f t="shared" si="0"/>
-        <v>151.6382094252277</v>
-      </c>
-      <c r="M45" s="18">
-        <f t="shared" si="1"/>
-        <v>3.4106051316484803E+32</v>
-      </c>
-      <c r="N45" s="18">
-        <f t="shared" si="2"/>
-        <v>1.3642420526593923E+32</v>
+        <v>2.7284841053187844E+31</v>
       </c>
       <c r="Q45">
-        <f t="shared" si="6"/>
-        <v>1.9678665903011638E-3</v>
+        <f t="shared" si="7"/>
+        <v>2.3998373052453218E-3</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
+      <c r="B46" s="16">
+        <f t="shared" si="11"/>
+        <v>1.1368683772161602E+32</v>
+      </c>
+      <c r="C46" s="16">
+        <f t="shared" si="5"/>
+        <v>9.1027168357611963E+25</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="10"/>
+        <v>346.92584329140624</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="6"/>
+        <v>3639.317026205465</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="1"/>
+        <v>151.6382094252277</v>
+      </c>
+      <c r="M46" s="16">
+        <f t="shared" si="2"/>
+        <v>3.4106051316484803E+32</v>
+      </c>
+      <c r="N46" s="16">
         <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-      <c r="B46" s="18">
-        <f>B45*I$2</f>
-        <v>5.6843418860808014E+32</v>
-      </c>
-      <c r="C46" s="18">
-        <f t="shared" si="4"/>
-        <v>4.1375985617096349E+26</v>
-      </c>
-      <c r="D46">
-        <f t="shared" si="9"/>
-        <v>381.61842762054687</v>
-      </c>
-      <c r="E46">
-        <f t="shared" si="5"/>
-        <v>4020.9354538260118</v>
-      </c>
-      <c r="F46">
-        <f t="shared" si="0"/>
-        <v>167.53897724275049</v>
-      </c>
-      <c r="M46" s="18">
-        <f t="shared" si="1"/>
-        <v>1.7053025658242403E+33</v>
-      </c>
-      <c r="N46" s="18">
-        <f t="shared" si="2"/>
-        <v>6.821210263296962E+32</v>
+        <v>1.3642420526593923E+32</v>
       </c>
       <c r="Q46">
-        <f t="shared" si="6"/>
-        <v>1.6136506040469543E-3</v>
+        <f t="shared" si="7"/>
+        <v>1.9678665903011638E-3</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="B47" s="16">
+        <f t="shared" si="11"/>
+        <v>5.6843418860808014E+32</v>
+      </c>
+      <c r="C47" s="16">
+        <f t="shared" si="5"/>
+        <v>4.1375985617096349E+26</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="10"/>
+        <v>381.61842762054687</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="6"/>
+        <v>4020.9354538260118</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="1"/>
+        <v>167.53897724275049</v>
+      </c>
+      <c r="M47" s="16">
+        <f t="shared" si="2"/>
+        <v>1.7053025658242403E+33</v>
+      </c>
+      <c r="N47" s="16">
         <f t="shared" si="3"/>
-        <v>46</v>
-      </c>
-      <c r="B47" s="18">
-        <f>B46*I$2</f>
-        <v>2.8421709430404009E+33</v>
-      </c>
-      <c r="C47" s="18">
-        <f t="shared" si="4"/>
-        <v>1.8807266189589246E+27</v>
-      </c>
-      <c r="D47">
-        <f t="shared" si="9"/>
-        <v>419.7802703826016</v>
-      </c>
-      <c r="E47">
-        <f t="shared" si="5"/>
-        <v>4440.7157242086132</v>
-      </c>
-      <c r="F47">
-        <f t="shared" si="0"/>
-        <v>185.02982184202554</v>
-      </c>
-      <c r="M47" s="18">
-        <f t="shared" si="1"/>
-        <v>8.5265128291212026E+33</v>
-      </c>
-      <c r="N47" s="18">
-        <f t="shared" si="2"/>
-        <v>3.4106051316484812E+33</v>
+        <v>6.821210263296962E+32</v>
       </c>
       <c r="Q47">
-        <f t="shared" si="6"/>
-        <v>1.3231934953185024E-3</v>
+        <f t="shared" si="7"/>
+        <v>1.6136506040469543E-3</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48">
+        <f t="shared" si="4"/>
+        <v>46</v>
+      </c>
+      <c r="B48" s="16">
+        <f t="shared" si="11"/>
+        <v>2.8421709430404009E+33</v>
+      </c>
+      <c r="C48" s="16">
+        <f t="shared" si="5"/>
+        <v>1.8807266189589246E+27</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="10"/>
+        <v>419.7802703826016</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="6"/>
+        <v>4440.7157242086132</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="1"/>
+        <v>185.02982184202554</v>
+      </c>
+      <c r="M48" s="16">
+        <f t="shared" si="2"/>
+        <v>8.5265128291212026E+33</v>
+      </c>
+      <c r="N48" s="16">
         <f t="shared" si="3"/>
-        <v>47</v>
-      </c>
-      <c r="B48" s="18">
-        <f>B47*I$2</f>
-        <v>1.4210854715202004E+34</v>
-      </c>
-      <c r="C48" s="18">
-        <f t="shared" si="4"/>
-        <v>8.5487573589042022E+27</v>
-      </c>
-      <c r="D48">
-        <f t="shared" si="9"/>
-        <v>461.75829742086182</v>
-      </c>
-      <c r="E48">
-        <f t="shared" si="5"/>
-        <v>4902.4740216294749</v>
-      </c>
-      <c r="F48">
-        <f t="shared" si="0"/>
-        <v>204.26975090122812</v>
-      </c>
-      <c r="M48" s="18">
-        <f t="shared" si="1"/>
-        <v>4.2632564145606011E+34</v>
-      </c>
-      <c r="N48" s="18">
-        <f t="shared" si="2"/>
-        <v>1.7053025658242405E+34</v>
+        <v>3.4106051316484812E+33</v>
       </c>
       <c r="Q48">
-        <f t="shared" si="6"/>
-        <v>1.0850186661611719E-3</v>
+        <f t="shared" si="7"/>
+        <v>1.3231934953185024E-3</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49">
+        <f t="shared" si="4"/>
+        <v>47</v>
+      </c>
+      <c r="B49" s="16">
+        <f t="shared" si="11"/>
+        <v>1.4210854715202004E+34</v>
+      </c>
+      <c r="C49" s="16">
+        <f t="shared" si="5"/>
+        <v>8.5487573589042022E+27</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="10"/>
+        <v>461.75829742086182</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="6"/>
+        <v>4902.4740216294749</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="1"/>
+        <v>204.26975090122812</v>
+      </c>
+      <c r="M49" s="16">
+        <f t="shared" si="2"/>
+        <v>4.2632564145606011E+34</v>
+      </c>
+      <c r="N49" s="16">
         <f t="shared" si="3"/>
-        <v>48</v>
-      </c>
-      <c r="B49" s="18">
-        <f>B48*I$2</f>
-        <v>7.1054273576010024E+34</v>
-      </c>
-      <c r="C49" s="18">
-        <f t="shared" si="4"/>
-        <v>3.8857987995019098E+28</v>
-      </c>
-      <c r="D49">
-        <f t="shared" si="9"/>
-        <v>507.93412716294807</v>
-      </c>
-      <c r="E49">
-        <f t="shared" si="5"/>
-        <v>5410.4081487924232</v>
-      </c>
-      <c r="F49">
-        <f t="shared" si="0"/>
-        <v>225.43367286635097</v>
-      </c>
-      <c r="M49" s="18">
-        <f t="shared" si="1"/>
-        <v>2.1316282072803007E+35</v>
-      </c>
-      <c r="N49" s="18">
-        <f t="shared" si="2"/>
-        <v>8.5265128291212021E+34</v>
+        <v>1.7053025658242405E+34</v>
       </c>
       <c r="Q49">
-        <f t="shared" si="6"/>
-        <v>8.8971530625216091E-4</v>
+        <f t="shared" si="7"/>
+        <v>1.0850186661611719E-3</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="B50" s="16">
+        <f t="shared" si="11"/>
+        <v>7.1054273576010024E+34</v>
+      </c>
+      <c r="C50" s="16">
+        <f t="shared" si="5"/>
+        <v>3.8857987995019098E+28</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="10"/>
+        <v>507.93412716294807</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="6"/>
+        <v>5410.4081487924232</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="1"/>
+        <v>225.43367286635097</v>
+      </c>
+      <c r="M50" s="16">
+        <f t="shared" si="2"/>
+        <v>2.1316282072803007E+35</v>
+      </c>
+      <c r="N50" s="16">
         <f t="shared" si="3"/>
-        <v>49</v>
-      </c>
-      <c r="B50" s="18">
-        <f>B49*I$2</f>
-        <v>3.5527136788005012E+35</v>
-      </c>
-      <c r="C50" s="18">
-        <f t="shared" si="4"/>
-        <v>1.7662721815917771E+29</v>
-      </c>
-      <c r="D50">
-        <f t="shared" si="9"/>
-        <v>558.72753987924295</v>
-      </c>
-      <c r="E50">
-        <f t="shared" si="5"/>
-        <v>5969.1356886716658</v>
-      </c>
-      <c r="F50">
-        <f t="shared" si="0"/>
-        <v>248.71398702798606</v>
-      </c>
-      <c r="M50" s="18">
-        <f t="shared" si="1"/>
-        <v>1.0658141036401504E+36</v>
-      </c>
-      <c r="N50" s="18">
-        <f t="shared" si="2"/>
-        <v>4.2632564145606014E+35</v>
+        <v>8.5265128291212021E+34</v>
       </c>
       <c r="Q50">
-        <f t="shared" si="6"/>
-        <v>7.2956655112677189E-4</v>
+        <f t="shared" si="7"/>
+        <v>8.8971530625216091E-4</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="B51" s="16">
+        <f t="shared" si="11"/>
+        <v>3.5527136788005012E+35</v>
+      </c>
+      <c r="C51" s="16">
+        <f t="shared" si="5"/>
+        <v>1.7662721815917771E+29</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="10"/>
+        <v>558.72753987924295</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="6"/>
+        <v>5969.1356886716658</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="1"/>
+        <v>248.71398702798606</v>
+      </c>
+      <c r="M51" s="16">
+        <f t="shared" si="2"/>
+        <v>1.0658141036401504E+36</v>
+      </c>
+      <c r="N51" s="16">
         <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-      <c r="B51" s="18">
-        <f>B50*I$2</f>
-        <v>1.7763568394002505E+36</v>
-      </c>
-      <c r="C51" s="18">
-        <f t="shared" si="4"/>
-        <v>8.028509916326256E+29</v>
-      </c>
-      <c r="D51">
-        <f t="shared" si="9"/>
-        <v>614.60029386716735</v>
-      </c>
-      <c r="E51">
-        <f t="shared" si="5"/>
-        <v>6583.735982538833</v>
-      </c>
-      <c r="F51">
-        <f t="shared" si="0"/>
-        <v>274.32233260578471</v>
-      </c>
-      <c r="M51" s="18">
-        <f t="shared" si="1"/>
-        <v>5.3290705182007514E+36</v>
-      </c>
-      <c r="N51" s="18">
-        <f t="shared" si="2"/>
-        <v>2.1316282072803004E+36</v>
+        <v>4.2632564145606014E+35</v>
       </c>
       <c r="Q51">
-        <f t="shared" si="6"/>
-        <v>5.9824457192395291E-4</v>
+        <f t="shared" si="7"/>
+        <v>7.2956655112677189E-4</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="B52" s="16">
+        <f t="shared" si="11"/>
+        <v>1.7763568394002505E+36</v>
+      </c>
+      <c r="C52" s="16">
+        <f t="shared" si="5"/>
+        <v>8.028509916326256E+29</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="10"/>
+        <v>614.60029386716735</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="6"/>
+        <v>6583.735982538833</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="1"/>
+        <v>274.32233260578471</v>
+      </c>
+      <c r="M52" s="16">
+        <f t="shared" si="2"/>
+        <v>5.3290705182007514E+36</v>
+      </c>
+      <c r="N52" s="16">
         <f t="shared" si="3"/>
-        <v>51</v>
-      </c>
-      <c r="B52" s="18">
-        <f>B51*I$2</f>
-        <v>8.8817841970012523E+36</v>
-      </c>
-      <c r="C52" s="18">
-        <f t="shared" si="4"/>
-        <v>3.6493226892392075E+30</v>
-      </c>
-      <c r="D52">
-        <f t="shared" si="9"/>
-        <v>676.06032325388412</v>
-      </c>
-      <c r="E52">
-        <f t="shared" si="5"/>
-        <v>7259.7963057927172</v>
-      </c>
-      <c r="F52">
-        <f t="shared" si="0"/>
-        <v>302.49151274136324</v>
-      </c>
-      <c r="M52" s="18">
-        <f t="shared" si="1"/>
-        <v>2.6645352591003757E+37</v>
-      </c>
-      <c r="N52" s="18">
-        <f t="shared" si="2"/>
-        <v>1.0658141036401503E+37</v>
+        <v>2.1316282072803004E+36</v>
       </c>
       <c r="Q52">
-        <f t="shared" si="6"/>
-        <v>4.9056054897764136E-4</v>
+        <f t="shared" si="7"/>
+        <v>5.9824457192395291E-4</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53">
+        <f t="shared" si="4"/>
+        <v>51</v>
+      </c>
+      <c r="B53" s="16">
+        <f t="shared" si="11"/>
+        <v>8.8817841970012523E+36</v>
+      </c>
+      <c r="C53" s="16">
+        <f t="shared" si="5"/>
+        <v>3.6493226892392075E+30</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="10"/>
+        <v>676.06032325388412</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="6"/>
+        <v>7259.7963057927172</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="1"/>
+        <v>302.49151274136324</v>
+      </c>
+      <c r="M53" s="16">
+        <f t="shared" si="2"/>
+        <v>2.6645352591003757E+37</v>
+      </c>
+      <c r="N53" s="16">
         <f t="shared" si="3"/>
-        <v>52</v>
-      </c>
-      <c r="B53" s="18">
-        <f>B52*I$2</f>
-        <v>4.4408920985006261E+37</v>
-      </c>
-      <c r="C53" s="18">
-        <f t="shared" si="4"/>
-        <v>1.658783040563276E+31</v>
-      </c>
-      <c r="D53">
-        <f t="shared" si="9"/>
-        <v>743.66635557927259</v>
-      </c>
-      <c r="E53">
-        <f t="shared" si="5"/>
-        <v>8003.4626613719902</v>
-      </c>
-      <c r="F53">
-        <f t="shared" si="0"/>
-        <v>333.47761089049959</v>
-      </c>
-      <c r="M53" s="18">
-        <f t="shared" si="1"/>
-        <v>1.3322676295501878E+38</v>
-      </c>
-      <c r="N53" s="18">
-        <f t="shared" si="2"/>
-        <v>5.3290705182007514E+37</v>
+        <v>1.0658141036401503E+37</v>
       </c>
       <c r="Q53">
-        <f t="shared" si="6"/>
-        <v>4.022596501616659E-4</v>
+        <f t="shared" si="7"/>
+        <v>4.9056054897764136E-4</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54">
+        <f t="shared" si="4"/>
+        <v>52</v>
+      </c>
+      <c r="B54" s="16">
+        <f t="shared" si="11"/>
+        <v>4.4408920985006261E+37</v>
+      </c>
+      <c r="C54" s="16">
+        <f t="shared" si="5"/>
+        <v>1.658783040563276E+31</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="10"/>
+        <v>743.66635557927259</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="6"/>
+        <v>8003.4626613719902</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="1"/>
+        <v>333.47761089049959</v>
+      </c>
+      <c r="M54" s="16">
+        <f t="shared" si="2"/>
+        <v>1.3322676295501878E+38</v>
+      </c>
+      <c r="N54" s="16">
         <f t="shared" si="3"/>
-        <v>53</v>
-      </c>
-      <c r="B54" s="18">
-        <f>B53*I$2</f>
-        <v>2.2204460492503133E+38</v>
-      </c>
-      <c r="C54" s="18">
-        <f t="shared" si="4"/>
-        <v>7.5399229116512538E+31</v>
-      </c>
-      <c r="D54">
-        <f t="shared" si="9"/>
-        <v>818.03299113719993</v>
-      </c>
-      <c r="E54">
-        <f t="shared" si="5"/>
-        <v>8821.4956525091893</v>
-      </c>
-      <c r="F54">
-        <f t="shared" si="0"/>
-        <v>367.56231885454957</v>
-      </c>
-      <c r="M54" s="18">
-        <f t="shared" si="1"/>
-        <v>6.6613381477509398E+38</v>
-      </c>
-      <c r="N54" s="18">
-        <f t="shared" si="2"/>
-        <v>2.6645352591003757E+38</v>
+        <v>5.3290705182007514E+37</v>
       </c>
       <c r="Q54">
-        <f t="shared" si="6"/>
-        <v>3.2985291313256603E-4</v>
+        <f t="shared" si="7"/>
+        <v>4.022596501616659E-4</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55">
+        <f t="shared" si="4"/>
+        <v>53</v>
+      </c>
+      <c r="B55" s="16">
+        <f t="shared" si="11"/>
+        <v>2.2204460492503133E+38</v>
+      </c>
+      <c r="C55" s="16">
+        <f t="shared" si="5"/>
+        <v>7.5399229116512538E+31</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="10"/>
+        <v>818.03299113719993</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="6"/>
+        <v>8821.4956525091893</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="1"/>
+        <v>367.56231885454957</v>
+      </c>
+      <c r="M55" s="16">
+        <f t="shared" si="2"/>
+        <v>6.6613381477509398E+38</v>
+      </c>
+      <c r="N55" s="16">
         <f t="shared" si="3"/>
-        <v>54</v>
-      </c>
-      <c r="B55" s="18">
-        <f>B54*I$2</f>
-        <v>1.1102230246251567E+39</v>
-      </c>
-      <c r="C55" s="18">
-        <f t="shared" si="4"/>
-        <v>3.4272376871142063E+32</v>
-      </c>
-      <c r="D55">
-        <f t="shared" si="9"/>
-        <v>899.83629025092</v>
-      </c>
-      <c r="E55">
-        <f t="shared" si="5"/>
-        <v>9721.3319427601091</v>
-      </c>
-      <c r="F55">
-        <f t="shared" si="0"/>
-        <v>405.05549761500453</v>
-      </c>
-      <c r="M55" s="18">
-        <f t="shared" si="1"/>
-        <v>3.3306690738754704E+39</v>
-      </c>
-      <c r="N55" s="18">
-        <f t="shared" si="2"/>
-        <v>1.332267629550188E+39</v>
+        <v>2.6645352591003757E+38</v>
       </c>
       <c r="Q55">
-        <f t="shared" si="6"/>
-        <v>2.7047938876870414E-4</v>
+        <f t="shared" si="7"/>
+        <v>3.2985291313256603E-4</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+      <c r="B56" s="16">
+        <f t="shared" si="11"/>
+        <v>1.1102230246251567E+39</v>
+      </c>
+      <c r="C56" s="16">
+        <f t="shared" si="5"/>
+        <v>3.4272376871142063E+32</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="10"/>
+        <v>899.83629025092</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="6"/>
+        <v>9721.3319427601091</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="1"/>
+        <v>405.05549761500453</v>
+      </c>
+      <c r="M56" s="16">
+        <f t="shared" si="2"/>
+        <v>3.3306690738754704E+39</v>
+      </c>
+      <c r="N56" s="16">
         <f t="shared" si="3"/>
-        <v>55</v>
-      </c>
-      <c r="B56" s="18">
-        <f>B55*I$2</f>
-        <v>5.5511151231257832E+39</v>
-      </c>
-      <c r="C56" s="18">
-        <f t="shared" si="4"/>
-        <v>1.5578353123246389E+33</v>
-      </c>
-      <c r="D56">
-        <f t="shared" ref="D56:D82" si="10">D55*1.1</f>
-        <v>989.81991927601212</v>
-      </c>
-      <c r="E56">
-        <f t="shared" ref="E56:E82" si="11">D56+E55</f>
-        <v>10711.15186203612</v>
-      </c>
-      <c r="F56">
-        <f t="shared" si="0"/>
-        <v>446.29799425150503</v>
-      </c>
-      <c r="M56" s="18">
-        <f t="shared" si="1"/>
-        <v>1.6653345369377351E+40</v>
-      </c>
-      <c r="N56" s="18">
-        <f t="shared" si="2"/>
-        <v>6.6613381477509396E+39</v>
+        <v>1.332267629550188E+39</v>
       </c>
       <c r="Q56">
-        <f t="shared" si="6"/>
-        <v>2.217930987903374E-4</v>
+        <f t="shared" si="7"/>
+        <v>2.7047938876870414E-4</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57">
+        <f t="shared" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="B57" s="16">
+        <f t="shared" si="11"/>
+        <v>5.5511151231257832E+39</v>
+      </c>
+      <c r="C57" s="16">
+        <f t="shared" si="5"/>
+        <v>1.5578353123246389E+33</v>
+      </c>
+      <c r="D57">
+        <f t="shared" ref="D57:D83" si="12">D56*1.1</f>
+        <v>989.81991927601212</v>
+      </c>
+      <c r="E57">
+        <f t="shared" ref="E57:E83" si="13">D57+E56</f>
+        <v>10711.15186203612</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="1"/>
+        <v>446.29799425150503</v>
+      </c>
+      <c r="M57" s="16">
+        <f t="shared" si="2"/>
+        <v>1.6653345369377351E+40</v>
+      </c>
+      <c r="N57" s="16">
         <f t="shared" si="3"/>
-        <v>56</v>
-      </c>
-      <c r="B57" s="18">
-        <f>B56*I$2</f>
-        <v>2.7755575615628915E+40</v>
-      </c>
-      <c r="C57" s="18">
-        <f t="shared" si="4"/>
-        <v>7.0810696014756317E+33</v>
-      </c>
-      <c r="D57">
-        <f t="shared" si="10"/>
-        <v>1088.8019112036134</v>
-      </c>
-      <c r="E57">
-        <f t="shared" si="11"/>
-        <v>11799.953773239733</v>
-      </c>
-      <c r="F57">
-        <f t="shared" si="0"/>
-        <v>491.66474055165554</v>
-      </c>
-      <c r="M57" s="18">
-        <f t="shared" si="1"/>
-        <v>8.326672684688674E+40</v>
-      </c>
-      <c r="N57" s="18">
-        <f t="shared" si="2"/>
-        <v>3.3306690738754697E+40</v>
+        <v>6.6613381477509396E+39</v>
       </c>
       <c r="Q57">
-        <f t="shared" si="6"/>
-        <v>1.8187034100807667E-4</v>
+        <f t="shared" si="7"/>
+        <v>2.217930987903374E-4</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58">
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="B58" s="16">
+        <f t="shared" si="11"/>
+        <v>2.7755575615628915E+40</v>
+      </c>
+      <c r="C58" s="16">
+        <f t="shared" si="5"/>
+        <v>7.0810696014756317E+33</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="12"/>
+        <v>1088.8019112036134</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="13"/>
+        <v>11799.953773239733</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="1"/>
+        <v>491.66474055165554</v>
+      </c>
+      <c r="M58" s="16">
+        <f t="shared" si="2"/>
+        <v>8.326672684688674E+40</v>
+      </c>
+      <c r="N58" s="16">
         <f t="shared" si="3"/>
-        <v>57</v>
-      </c>
-      <c r="B58" s="18">
-        <f>B57*I$2</f>
-        <v>1.3877787807814458E+41</v>
-      </c>
-      <c r="C58" s="18">
-        <f t="shared" si="4"/>
-        <v>3.218668000670742E+34</v>
-      </c>
-      <c r="D58">
-        <f t="shared" si="10"/>
-        <v>1197.6821023239747</v>
-      </c>
-      <c r="E58">
-        <f t="shared" si="11"/>
-        <v>12997.635875563708</v>
-      </c>
-      <c r="F58">
-        <f t="shared" si="0"/>
-        <v>541.56816148182122</v>
-      </c>
-      <c r="M58" s="18">
-        <f t="shared" si="1"/>
-        <v>4.1633363423443374E+41</v>
-      </c>
-      <c r="N58" s="18">
-        <f t="shared" si="2"/>
-        <v>1.6653345369377348E+41</v>
+        <v>3.3306690738754697E+40</v>
       </c>
       <c r="Q58">
-        <f t="shared" si="6"/>
-        <v>1.4913367962662285E-4</v>
+        <f t="shared" si="7"/>
+        <v>1.8187034100807667E-4</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59">
+        <f t="shared" si="4"/>
+        <v>57</v>
+      </c>
+      <c r="B59" s="16">
+        <f t="shared" si="11"/>
+        <v>1.3877787807814458E+41</v>
+      </c>
+      <c r="C59" s="16">
+        <f t="shared" si="5"/>
+        <v>3.218668000670742E+34</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="12"/>
+        <v>1197.6821023239747</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="13"/>
+        <v>12997.635875563708</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="1"/>
+        <v>541.56816148182122</v>
+      </c>
+      <c r="M59" s="16">
+        <f t="shared" si="2"/>
+        <v>4.1633363423443374E+41</v>
+      </c>
+      <c r="N59" s="16">
         <f t="shared" si="3"/>
-        <v>58</v>
-      </c>
-      <c r="B59" s="18">
-        <f>B58*I$2</f>
-        <v>6.938893903907229E+41</v>
-      </c>
-      <c r="C59" s="18">
-        <f t="shared" si="4"/>
-        <v>1.4630309093957914E+35</v>
-      </c>
-      <c r="D59">
-        <f t="shared" si="10"/>
-        <v>1317.4503125563724</v>
-      </c>
-      <c r="E59">
-        <f t="shared" si="11"/>
-        <v>14315.08618812008</v>
-      </c>
-      <c r="F59">
-        <f t="shared" si="0"/>
-        <v>596.46192450500337</v>
-      </c>
-      <c r="M59" s="18">
-        <f t="shared" si="1"/>
-        <v>2.0816681711721685E+42</v>
-      </c>
-      <c r="N59" s="18">
-        <f t="shared" si="2"/>
-        <v>8.3266726846886747E+41</v>
+        <v>1.6653345369377348E+41</v>
       </c>
       <c r="Q59">
-        <f t="shared" si="6"/>
-        <v>1.2228961729383072E-4</v>
+        <f t="shared" si="7"/>
+        <v>1.4913367962662285E-4</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60">
+        <f t="shared" si="4"/>
+        <v>58</v>
+      </c>
+      <c r="B60" s="16">
+        <f t="shared" si="11"/>
+        <v>6.938893903907229E+41</v>
+      </c>
+      <c r="C60" s="16">
+        <f t="shared" si="5"/>
+        <v>1.4630309093957914E+35</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="12"/>
+        <v>1317.4503125563724</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="13"/>
+        <v>14315.08618812008</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="1"/>
+        <v>596.46192450500337</v>
+      </c>
+      <c r="M60" s="16">
+        <f t="shared" si="2"/>
+        <v>2.0816681711721685E+42</v>
+      </c>
+      <c r="N60" s="16">
         <f t="shared" si="3"/>
-        <v>59</v>
-      </c>
-      <c r="B60" s="18">
-        <f>B59*I$2</f>
-        <v>3.4694469519536146E+42</v>
-      </c>
-      <c r="C60" s="18">
-        <f t="shared" si="4"/>
-        <v>6.6501404972535968E+35</v>
-      </c>
-      <c r="D60">
-        <f t="shared" si="10"/>
-        <v>1449.1953438120097</v>
-      </c>
-      <c r="E60">
-        <f t="shared" si="11"/>
-        <v>15764.281531932089</v>
-      </c>
-      <c r="F60">
-        <f t="shared" si="0"/>
-        <v>656.8450638305037</v>
-      </c>
-      <c r="M60" s="18">
-        <f t="shared" si="1"/>
-        <v>1.0408340855860845E+43</v>
-      </c>
-      <c r="N60" s="18">
-        <f t="shared" si="2"/>
-        <v>4.1633363423443377E+42</v>
+        <v>8.3266726846886747E+41</v>
       </c>
       <c r="Q60">
-        <f t="shared" si="6"/>
-        <v>1.0027748618094118E-4</v>
+        <f t="shared" si="7"/>
+        <v>1.2228961729383072E-4</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61">
+        <f t="shared" si="4"/>
+        <v>59</v>
+      </c>
+      <c r="B61" s="16">
+        <f t="shared" si="11"/>
+        <v>3.4694469519536146E+42</v>
+      </c>
+      <c r="C61" s="16">
+        <f t="shared" si="5"/>
+        <v>6.6501404972535968E+35</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="12"/>
+        <v>1449.1953438120097</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="13"/>
+        <v>15764.281531932089</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="1"/>
+        <v>656.8450638305037</v>
+      </c>
+      <c r="M61" s="16">
+        <f t="shared" si="2"/>
+        <v>1.0408340855860845E+43</v>
+      </c>
+      <c r="N61" s="16">
         <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="B61" s="18">
-        <f>B60*I$2</f>
-        <v>1.7347234759768073E+43</v>
-      </c>
-      <c r="C61" s="18">
-        <f t="shared" si="4"/>
-        <v>3.022791135115271E+36</v>
-      </c>
-      <c r="D61">
-        <f t="shared" si="10"/>
-        <v>1594.1148781932109</v>
-      </c>
-      <c r="E61">
-        <f t="shared" si="11"/>
-        <v>17358.3964101253</v>
-      </c>
-      <c r="F61">
-        <f t="shared" si="0"/>
-        <v>723.26651708855422</v>
-      </c>
-      <c r="M61" s="18">
-        <f t="shared" si="1"/>
-        <v>5.2041704279304213E+43</v>
-      </c>
-      <c r="N61" s="18">
-        <f t="shared" si="2"/>
-        <v>2.0816681711721687E+43</v>
+        <v>4.1633363423443377E+42</v>
       </c>
       <c r="Q61">
-        <f t="shared" si="6"/>
-        <v>8.2227538668371759E-5</v>
+        <f t="shared" si="7"/>
+        <v>1.0027748618094118E-4</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="B62" s="16">
+        <f t="shared" si="11"/>
+        <v>1.7347234759768073E+43</v>
+      </c>
+      <c r="C62" s="16">
+        <f t="shared" si="5"/>
+        <v>3.022791135115271E+36</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="12"/>
+        <v>1594.1148781932109</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="13"/>
+        <v>17358.3964101253</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="1"/>
+        <v>723.26651708855422</v>
+      </c>
+      <c r="M62" s="16">
+        <f t="shared" si="2"/>
+        <v>5.2041704279304213E+43</v>
+      </c>
+      <c r="N62" s="16">
         <f t="shared" si="3"/>
-        <v>61</v>
-      </c>
-      <c r="B62" s="18">
-        <f>B61*I$2</f>
-        <v>8.6736173798840368E+43</v>
-      </c>
-      <c r="C62" s="18">
-        <f t="shared" si="4"/>
-        <v>1.3739959705069413E+37</v>
-      </c>
-      <c r="D62">
-        <f t="shared" si="10"/>
-        <v>1753.5263660125322</v>
-      </c>
-      <c r="E62">
-        <f t="shared" si="11"/>
-        <v>19111.922776137832</v>
-      </c>
-      <c r="F62">
-        <f t="shared" si="0"/>
-        <v>796.33011567240965</v>
-      </c>
-      <c r="M62" s="18">
-        <f t="shared" si="1"/>
-        <v>2.602085213965211E+44</v>
-      </c>
-      <c r="N62" s="18">
-        <f t="shared" si="2"/>
-        <v>1.0408340855860845E+44</v>
+        <v>2.0816681711721687E+43</v>
       </c>
       <c r="Q62">
-        <f t="shared" si="6"/>
-        <v>6.7426581708064843E-5</v>
+        <f t="shared" si="7"/>
+        <v>8.2227538668371759E-5</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63">
+        <f t="shared" si="4"/>
+        <v>61</v>
+      </c>
+      <c r="B63" s="16">
+        <f t="shared" si="11"/>
+        <v>8.6736173798840368E+43</v>
+      </c>
+      <c r="C63" s="16">
+        <f t="shared" si="5"/>
+        <v>1.3739959705069413E+37</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="12"/>
+        <v>1753.5263660125322</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="13"/>
+        <v>19111.922776137832</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="1"/>
+        <v>796.33011567240965</v>
+      </c>
+      <c r="M63" s="16">
+        <f t="shared" si="2"/>
+        <v>2.602085213965211E+44</v>
+      </c>
+      <c r="N63" s="16">
         <f t="shared" si="3"/>
-        <v>62</v>
-      </c>
-      <c r="B63" s="18">
-        <f>B62*I$2</f>
-        <v>4.3368086899420188E+44</v>
-      </c>
-      <c r="C63" s="18">
-        <f t="shared" si="4"/>
-        <v>6.2454362295770054E+37</v>
-      </c>
-      <c r="D63">
-        <f t="shared" si="10"/>
-        <v>1928.8790026137856</v>
-      </c>
-      <c r="E63">
-        <f t="shared" si="11"/>
-        <v>21040.801778751618</v>
-      </c>
-      <c r="F63">
-        <f t="shared" si="0"/>
-        <v>876.70007411465076</v>
-      </c>
-      <c r="M63" s="18">
-        <f t="shared" si="1"/>
-        <v>1.3010426069826056E+45</v>
-      </c>
-      <c r="N63" s="18">
-        <f t="shared" si="2"/>
-        <v>5.2041704279304221E+44</v>
+        <v>1.0408340855860845E+44</v>
       </c>
       <c r="Q63">
-        <f t="shared" si="6"/>
-        <v>5.5289797000613169E-5</v>
+        <f t="shared" si="7"/>
+        <v>6.7426581708064843E-5</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="B64" s="16">
+        <f t="shared" si="11"/>
+        <v>4.3368086899420188E+44</v>
+      </c>
+      <c r="C64" s="16">
+        <f t="shared" si="5"/>
+        <v>6.2454362295770054E+37</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="12"/>
+        <v>1928.8790026137856</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="13"/>
+        <v>21040.801778751618</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="1"/>
+        <v>876.70007411465076</v>
+      </c>
+      <c r="M64" s="16">
+        <f t="shared" si="2"/>
+        <v>1.3010426069826056E+45</v>
+      </c>
+      <c r="N64" s="16">
         <f t="shared" si="3"/>
-        <v>63</v>
-      </c>
-      <c r="B64" s="18">
-        <f>B63*I$2</f>
-        <v>2.1684043449710092E+45</v>
-      </c>
-      <c r="C64" s="18">
-        <f t="shared" si="4"/>
-        <v>2.8388346498077295E+38</v>
-      </c>
-      <c r="D64">
-        <f t="shared" si="10"/>
-        <v>2121.7669028751643</v>
-      </c>
-      <c r="E64">
-        <f t="shared" si="11"/>
-        <v>23162.568681626784</v>
-      </c>
-      <c r="F64">
-        <f t="shared" si="0"/>
-        <v>965.10702840111605</v>
-      </c>
-      <c r="M64" s="18">
-        <f t="shared" si="1"/>
-        <v>6.5052130349130271E+45</v>
-      </c>
-      <c r="N64" s="18">
-        <f t="shared" si="2"/>
-        <v>2.602085213965211E+45</v>
+        <v>5.2041704279304221E+44</v>
       </c>
       <c r="Q64">
-        <f t="shared" si="6"/>
-        <v>4.5337633540502797E-5</v>
+        <f t="shared" si="7"/>
+        <v>5.5289797000613169E-5</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65">
+        <f t="shared" si="4"/>
+        <v>63</v>
+      </c>
+      <c r="B65" s="16">
+        <f t="shared" si="11"/>
+        <v>2.1684043449710092E+45</v>
+      </c>
+      <c r="C65" s="16">
+        <f t="shared" si="5"/>
+        <v>2.8388346498077295E+38</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="12"/>
+        <v>2121.7669028751643</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="13"/>
+        <v>23162.568681626784</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="1"/>
+        <v>965.10702840111605</v>
+      </c>
+      <c r="M65" s="16">
+        <f t="shared" si="2"/>
+        <v>6.5052130349130271E+45</v>
+      </c>
+      <c r="N65" s="16">
         <f t="shared" si="3"/>
-        <v>64</v>
-      </c>
-      <c r="B65" s="18">
-        <f>B64*I$2</f>
-        <v>1.0842021724855047E+46</v>
-      </c>
-      <c r="C65" s="18">
-        <f t="shared" si="4"/>
-        <v>1.2903793862762406E+39</v>
-      </c>
-      <c r="D65">
-        <f t="shared" si="10"/>
-        <v>2333.9435931626808</v>
-      </c>
-      <c r="E65">
-        <f t="shared" si="11"/>
-        <v>25496.512274789464</v>
-      </c>
-      <c r="F65">
-        <f t="shared" si="0"/>
-        <v>1062.3546781162277</v>
-      </c>
-      <c r="M65" s="18">
-        <f t="shared" si="1"/>
-        <v>3.252606517456514E+46</v>
-      </c>
-      <c r="N65" s="18">
-        <f t="shared" si="2"/>
-        <v>1.3010426069826057E+46</v>
+        <v>2.602085213965211E+45</v>
       </c>
       <c r="Q65">
-        <f t="shared" si="6"/>
-        <v>3.7176859503212293E-5</v>
+        <f t="shared" si="7"/>
+        <v>4.5337633540502797E-5</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66">
+        <f t="shared" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="B66" s="16">
+        <f t="shared" si="11"/>
+        <v>1.0842021724855047E+46</v>
+      </c>
+      <c r="C66" s="16">
+        <f t="shared" si="5"/>
+        <v>1.2903793862762406E+39</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="12"/>
+        <v>2333.9435931626808</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="13"/>
+        <v>25496.512274789464</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="1"/>
+        <v>1062.3546781162277</v>
+      </c>
+      <c r="M66" s="16">
+        <f t="shared" si="2"/>
+        <v>3.252606517456514E+46</v>
+      </c>
+      <c r="N66" s="16">
         <f t="shared" si="3"/>
-        <v>65</v>
-      </c>
-      <c r="B66" s="18">
-        <f>B65*I$2</f>
-        <v>5.4210108624275229E+46</v>
-      </c>
-      <c r="C66" s="18">
-        <f t="shared" si="4"/>
-        <v>5.8653608467101839E+39</v>
-      </c>
-      <c r="D66">
-        <f t="shared" si="10"/>
-        <v>2567.3379524789493</v>
-      </c>
-      <c r="E66">
-        <f t="shared" si="11"/>
-        <v>28063.850227268413</v>
-      </c>
-      <c r="F66">
-        <f t="shared" si="0"/>
-        <v>1169.3270928028505</v>
-      </c>
-      <c r="M66" s="18">
-        <f t="shared" si="1"/>
-        <v>1.6263032587282569E+47</v>
-      </c>
-      <c r="N66" s="18">
-        <f t="shared" si="2"/>
-        <v>6.5052130349130271E+46</v>
+        <v>1.3010426069826057E+46</v>
       </c>
       <c r="Q66">
-        <f t="shared" si="6"/>
-        <v>3.0485024792634078E-5</v>
+        <f t="shared" si="7"/>
+        <v>3.7176859503212293E-5</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67">
+        <f t="shared" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="B67" s="16">
+        <f t="shared" si="11"/>
+        <v>5.4210108624275229E+46</v>
+      </c>
+      <c r="C67" s="16">
+        <f t="shared" si="5"/>
+        <v>5.8653608467101839E+39</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="12"/>
+        <v>2567.3379524789493</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="13"/>
+        <v>28063.850227268413</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="1"/>
+        <v>1169.3270928028505</v>
+      </c>
+      <c r="M67" s="16">
+        <f t="shared" si="2"/>
+        <v>1.6263032587282569E+47</v>
+      </c>
+      <c r="N67" s="16">
         <f t="shared" si="3"/>
-        <v>66</v>
-      </c>
-      <c r="B67" s="18">
-        <f>B66*I$2</f>
-        <v>2.7105054312137614E+47</v>
-      </c>
-      <c r="C67" s="18">
-        <f t="shared" si="4"/>
-        <v>2.6660731121409922E+40</v>
-      </c>
-      <c r="D67">
-        <f t="shared" si="10"/>
-        <v>2824.0717477268445</v>
-      </c>
-      <c r="E67">
-        <f t="shared" si="11"/>
-        <v>30887.921974995257</v>
-      </c>
-      <c r="F67">
-        <f t="shared" ref="F67:F82" si="12">E67/24</f>
-        <v>1286.9967489581356</v>
-      </c>
-      <c r="M67" s="18">
-        <f t="shared" ref="M67:M82" si="13">B67*I$4</f>
-        <v>8.1315162936412851E+47</v>
-      </c>
-      <c r="N67" s="18">
-        <f t="shared" ref="N67:N82" si="14">B67*I$5</f>
-        <v>3.2526065174565137E+47</v>
+        <v>6.5052130349130271E+46</v>
       </c>
       <c r="Q67">
-        <f t="shared" si="6"/>
-        <v>2.4997720329959944E-5</v>
+        <f t="shared" si="7"/>
+        <v>3.0485024792634078E-5</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68">
-        <f t="shared" ref="A68:A82" si="15">A67+1</f>
-        <v>67</v>
-      </c>
-      <c r="B68" s="18">
-        <f>B67*I$2</f>
-        <v>1.3552527156068806E+48</v>
-      </c>
-      <c r="C68" s="18">
-        <f t="shared" ref="C68:C82" si="16">B68/(D68*3600)</f>
-        <v>1.2118514146095416E+41</v>
+        <f t="shared" si="4"/>
+        <v>66</v>
+      </c>
+      <c r="B68" s="16">
+        <f t="shared" ref="B68:B83" si="14">B67*I$3</f>
+        <v>2.7105054312137614E+47</v>
+      </c>
+      <c r="C68" s="16">
+        <f t="shared" si="5"/>
+        <v>2.6660731121409922E+40</v>
       </c>
       <c r="D68">
-        <f t="shared" si="10"/>
-        <v>3106.4789224995293</v>
+        <f t="shared" si="12"/>
+        <v>2824.0717477268445</v>
       </c>
       <c r="E68">
-        <f t="shared" si="11"/>
-        <v>33994.400897494786</v>
+        <f t="shared" si="13"/>
+        <v>30887.921974995257</v>
       </c>
       <c r="F68">
-        <f t="shared" si="12"/>
-        <v>1416.4333707289495</v>
-      </c>
-      <c r="M68" s="18">
-        <f t="shared" si="13"/>
-        <v>4.0657581468206419E+48</v>
-      </c>
-      <c r="N68" s="18">
-        <f t="shared" si="14"/>
-        <v>1.6263032587282567E+48</v>
+        <f t="shared" ref="F68:F83" si="15">E68/24</f>
+        <v>1286.9967489581356</v>
+      </c>
+      <c r="M68" s="16">
+        <f t="shared" ref="M68:M83" si="16">B68*I$5</f>
+        <v>8.1315162936412851E+47</v>
+      </c>
+      <c r="N68" s="16">
+        <f t="shared" ref="N68:N83" si="17">B68*I$6</f>
+        <v>3.2526065174565137E+47</v>
       </c>
       <c r="Q68">
-        <f t="shared" ref="Q68:Q82" si="17">Q67*J$10</f>
-        <v>2.0498130670567153E-5</v>
+        <f t="shared" si="7"/>
+        <v>2.4997720329959944E-5</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69">
+        <f t="shared" ref="A69:A83" si="18">A68+1</f>
+        <v>67</v>
+      </c>
+      <c r="B69" s="16">
+        <f t="shared" si="14"/>
+        <v>1.3552527156068806E+48</v>
+      </c>
+      <c r="C69" s="16">
+        <f t="shared" ref="C69:C83" si="19">B69/(D69*3600)</f>
+        <v>1.2118514146095416E+41</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="12"/>
+        <v>3106.4789224995293</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="13"/>
+        <v>33994.400897494786</v>
+      </c>
+      <c r="F69">
         <f t="shared" si="15"/>
-        <v>68</v>
-      </c>
-      <c r="B69" s="18">
-        <f>B68*I$2</f>
-        <v>6.7762635780344032E+48</v>
-      </c>
-      <c r="C69" s="18">
+        <v>1416.4333707289495</v>
+      </c>
+      <c r="M69" s="16">
         <f t="shared" si="16"/>
-        <v>5.5084155209524622E+41</v>
-      </c>
-      <c r="D69">
-        <f t="shared" si="10"/>
-        <v>3417.1268147494825</v>
-      </c>
-      <c r="E69">
-        <f t="shared" si="11"/>
-        <v>37411.527712244271</v>
-      </c>
-      <c r="F69">
-        <f t="shared" si="12"/>
-        <v>1558.8136546768446</v>
-      </c>
-      <c r="M69" s="18">
-        <f t="shared" si="13"/>
-        <v>2.032879073410321E+49</v>
-      </c>
-      <c r="N69" s="18">
-        <f t="shared" si="14"/>
-        <v>8.1315162936412838E+48</v>
+        <v>4.0657581468206419E+48</v>
+      </c>
+      <c r="N69" s="16">
+        <f t="shared" si="17"/>
+        <v>1.6263032587282567E+48</v>
       </c>
       <c r="Q69">
-        <f t="shared" si="17"/>
-        <v>1.6808467149865065E-5</v>
+        <f t="shared" ref="Q69:Q83" si="20">Q68*J$11</f>
+        <v>2.0498130670567153E-5</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70">
+        <f t="shared" si="18"/>
+        <v>68</v>
+      </c>
+      <c r="B70" s="16">
+        <f t="shared" si="14"/>
+        <v>6.7762635780344032E+48</v>
+      </c>
+      <c r="C70" s="16">
+        <f t="shared" si="19"/>
+        <v>5.5084155209524622E+41</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="12"/>
+        <v>3417.1268147494825</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="13"/>
+        <v>37411.527712244271</v>
+      </c>
+      <c r="F70">
         <f t="shared" si="15"/>
-        <v>69</v>
-      </c>
-      <c r="B70" s="18">
-        <f>B69*I$2</f>
-        <v>3.3881317890172016E+49</v>
-      </c>
-      <c r="C70" s="18">
+        <v>1558.8136546768446</v>
+      </c>
+      <c r="M70" s="16">
         <f t="shared" si="16"/>
-        <v>2.5038252367965733E+42</v>
-      </c>
-      <c r="D70">
-        <f t="shared" si="10"/>
-        <v>3758.8394962244311</v>
-      </c>
-      <c r="E70">
-        <f t="shared" si="11"/>
-        <v>41170.367208468699</v>
-      </c>
-      <c r="F70">
-        <f t="shared" si="12"/>
-        <v>1715.4319670195291</v>
-      </c>
-      <c r="M70" s="18">
-        <f t="shared" si="13"/>
-        <v>1.0164395367051605E+50</v>
-      </c>
-      <c r="N70" s="18">
-        <f t="shared" si="14"/>
-        <v>4.0657581468206419E+49</v>
+        <v>2.032879073410321E+49</v>
+      </c>
+      <c r="N70" s="16">
+        <f t="shared" si="17"/>
+        <v>8.1315162936412838E+48</v>
       </c>
       <c r="Q70">
-        <f t="shared" si="17"/>
-        <v>1.3782943062889353E-5</v>
+        <f t="shared" si="20"/>
+        <v>1.6808467149865065E-5</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71">
+        <f t="shared" si="18"/>
+        <v>69</v>
+      </c>
+      <c r="B71" s="16">
+        <f t="shared" si="14"/>
+        <v>3.3881317890172016E+49</v>
+      </c>
+      <c r="C71" s="16">
+        <f t="shared" si="19"/>
+        <v>2.5038252367965733E+42</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="12"/>
+        <v>3758.8394962244311</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="13"/>
+        <v>41170.367208468699</v>
+      </c>
+      <c r="F71">
         <f t="shared" si="15"/>
-        <v>70</v>
-      </c>
-      <c r="B71" s="18">
-        <f>B70*I$2</f>
-        <v>1.6940658945086007E+50</v>
-      </c>
-      <c r="C71" s="18">
+        <v>1715.4319670195291</v>
+      </c>
+      <c r="M71" s="16">
         <f t="shared" si="16"/>
-        <v>1.1381023803620788E+43</v>
-      </c>
-      <c r="D71">
-        <f t="shared" si="10"/>
-        <v>4134.7234458468747</v>
-      </c>
-      <c r="E71">
-        <f t="shared" si="11"/>
-        <v>45305.090654315572</v>
-      </c>
-      <c r="F71">
-        <f t="shared" si="12"/>
-        <v>1887.7121105964823</v>
-      </c>
-      <c r="M71" s="18">
-        <f t="shared" si="13"/>
-        <v>5.0821976835258022E+50</v>
-      </c>
-      <c r="N71" s="18">
-        <f t="shared" si="14"/>
-        <v>2.0328790734103206E+50</v>
+        <v>1.0164395367051605E+50</v>
+      </c>
+      <c r="N71" s="16">
+        <f t="shared" si="17"/>
+        <v>4.0657581468206419E+49</v>
       </c>
       <c r="Q71">
-        <f t="shared" si="17"/>
-        <v>1.1302013311569269E-5</v>
+        <f t="shared" si="20"/>
+        <v>1.3782943062889353E-5</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72">
+        <f t="shared" si="18"/>
+        <v>70</v>
+      </c>
+      <c r="B72" s="16">
+        <f t="shared" si="14"/>
+        <v>1.6940658945086007E+50</v>
+      </c>
+      <c r="C72" s="16">
+        <f t="shared" si="19"/>
+        <v>1.1381023803620788E+43</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="12"/>
+        <v>4134.7234458468747</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="13"/>
+        <v>45305.090654315572</v>
+      </c>
+      <c r="F72">
         <f t="shared" si="15"/>
-        <v>71</v>
-      </c>
-      <c r="B72" s="18">
-        <f>B71*I$2</f>
-        <v>8.4703294725430046E+50</v>
-      </c>
-      <c r="C72" s="18">
+        <v>1887.7121105964823</v>
+      </c>
+      <c r="M72" s="16">
         <f t="shared" si="16"/>
-        <v>5.1731926380094488E+43</v>
-      </c>
-      <c r="D72">
-        <f t="shared" si="10"/>
-        <v>4548.1957904315623</v>
-      </c>
-      <c r="E72">
-        <f t="shared" si="11"/>
-        <v>49853.286444747137</v>
-      </c>
-      <c r="F72">
-        <f t="shared" si="12"/>
-        <v>2077.2202685311308</v>
-      </c>
-      <c r="M72" s="18">
-        <f t="shared" si="13"/>
-        <v>2.5410988417629014E+51</v>
-      </c>
-      <c r="N72" s="18">
-        <f t="shared" si="14"/>
-        <v>1.0164395367051604E+51</v>
+        <v>5.0821976835258022E+50</v>
+      </c>
+      <c r="N72" s="16">
+        <f t="shared" si="17"/>
+        <v>2.0328790734103206E+50</v>
       </c>
       <c r="Q72">
-        <f t="shared" si="17"/>
-        <v>9.2676509154868001E-6</v>
+        <f t="shared" si="20"/>
+        <v>1.1302013311569269E-5</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73">
+        <f t="shared" si="18"/>
+        <v>71</v>
+      </c>
+      <c r="B73" s="16">
+        <f t="shared" si="14"/>
+        <v>8.4703294725430046E+50</v>
+      </c>
+      <c r="C73" s="16">
+        <f t="shared" si="19"/>
+        <v>5.1731926380094488E+43</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="12"/>
+        <v>4548.1957904315623</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="13"/>
+        <v>49853.286444747137</v>
+      </c>
+      <c r="F73">
         <f t="shared" si="15"/>
-        <v>72</v>
-      </c>
-      <c r="B73" s="18">
-        <f>B72*I$2</f>
-        <v>4.2351647362715023E+51</v>
-      </c>
-      <c r="C73" s="18">
+        <v>2077.2202685311308</v>
+      </c>
+      <c r="M73" s="16">
         <f t="shared" si="16"/>
-        <v>2.3514511990952036E+44</v>
-      </c>
-      <c r="D73">
-        <f t="shared" si="10"/>
-        <v>5003.0153694747187</v>
-      </c>
-      <c r="E73">
-        <f t="shared" si="11"/>
-        <v>54856.301814221857</v>
-      </c>
-      <c r="F73">
-        <f t="shared" si="12"/>
-        <v>2285.6792422592439</v>
-      </c>
-      <c r="M73" s="18">
-        <f t="shared" si="13"/>
-        <v>1.2705494208814508E+52</v>
-      </c>
-      <c r="N73" s="18">
-        <f t="shared" si="14"/>
-        <v>5.0821976835258027E+51</v>
+        <v>2.5410988417629014E+51</v>
+      </c>
+      <c r="N73" s="16">
+        <f t="shared" si="17"/>
+        <v>1.0164395367051604E+51</v>
       </c>
       <c r="Q73">
-        <f t="shared" si="17"/>
-        <v>7.5994737506991754E-6</v>
+        <f t="shared" si="20"/>
+        <v>9.2676509154868001E-6</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74">
+        <f t="shared" si="18"/>
+        <v>72</v>
+      </c>
+      <c r="B74" s="16">
+        <f t="shared" si="14"/>
+        <v>4.2351647362715023E+51</v>
+      </c>
+      <c r="C74" s="16">
+        <f t="shared" si="19"/>
+        <v>2.3514511990952036E+44</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="12"/>
+        <v>5003.0153694747187</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="13"/>
+        <v>54856.301814221857</v>
+      </c>
+      <c r="F74">
         <f t="shared" si="15"/>
-        <v>73</v>
-      </c>
-      <c r="B74" s="18">
-        <f>B73*I$2</f>
-        <v>2.117582368135751E+52</v>
-      </c>
-      <c r="C74" s="18">
+        <v>2285.6792422592439</v>
+      </c>
+      <c r="M74" s="16">
         <f t="shared" si="16"/>
-        <v>1.0688414541341834E+45</v>
-      </c>
-      <c r="D74">
-        <f t="shared" si="10"/>
-        <v>5503.3169064221911</v>
-      </c>
-      <c r="E74">
-        <f t="shared" si="11"/>
-        <v>60359.618720644052</v>
-      </c>
-      <c r="F74">
-        <f t="shared" si="12"/>
-        <v>2514.984113360169</v>
-      </c>
-      <c r="M74" s="18">
-        <f t="shared" si="13"/>
-        <v>6.3527471044072525E+52</v>
-      </c>
-      <c r="N74" s="18">
-        <f t="shared" si="14"/>
-        <v>2.5410988417629011E+52</v>
+        <v>1.2705494208814508E+52</v>
+      </c>
+      <c r="N74" s="16">
+        <f t="shared" si="17"/>
+        <v>5.0821976835258027E+51</v>
       </c>
       <c r="Q74">
-        <f t="shared" si="17"/>
-        <v>6.2315684755733234E-6</v>
+        <f t="shared" si="20"/>
+        <v>7.5994737506991754E-6</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75">
+        <f t="shared" si="18"/>
+        <v>73</v>
+      </c>
+      <c r="B75" s="16">
+        <f t="shared" si="14"/>
+        <v>2.117582368135751E+52</v>
+      </c>
+      <c r="C75" s="16">
+        <f t="shared" si="19"/>
+        <v>1.0688414541341834E+45</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="12"/>
+        <v>5503.3169064221911</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="13"/>
+        <v>60359.618720644052</v>
+      </c>
+      <c r="F75">
         <f t="shared" si="15"/>
-        <v>74</v>
-      </c>
-      <c r="B75" s="18">
-        <f>B74*I$2</f>
-        <v>1.0587911840678756E+53</v>
-      </c>
-      <c r="C75" s="18">
+        <v>2514.984113360169</v>
+      </c>
+      <c r="M75" s="16">
         <f t="shared" si="16"/>
-        <v>4.8583702460644704E+45</v>
-      </c>
-      <c r="D75">
-        <f t="shared" si="10"/>
-        <v>6053.6485970644108</v>
-      </c>
-      <c r="E75">
-        <f t="shared" si="11"/>
-        <v>66413.267317708465</v>
-      </c>
-      <c r="F75">
-        <f t="shared" si="12"/>
-        <v>2767.2194715711862</v>
-      </c>
-      <c r="M75" s="18">
-        <f t="shared" si="13"/>
-        <v>3.1763735522036267E+53</v>
-      </c>
-      <c r="N75" s="18">
-        <f t="shared" si="14"/>
-        <v>1.2705494208814507E+53</v>
+        <v>6.3527471044072525E+52</v>
+      </c>
+      <c r="N75" s="16">
+        <f t="shared" si="17"/>
+        <v>2.5410988417629011E+52</v>
       </c>
       <c r="Q75">
-        <f t="shared" si="17"/>
-        <v>5.1098861499701251E-6</v>
+        <f t="shared" si="20"/>
+        <v>6.2315684755733234E-6</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76">
+        <f t="shared" si="18"/>
+        <v>74</v>
+      </c>
+      <c r="B76" s="16">
+        <f t="shared" si="14"/>
+        <v>1.0587911840678756E+53</v>
+      </c>
+      <c r="C76" s="16">
+        <f t="shared" si="19"/>
+        <v>4.8583702460644704E+45</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="12"/>
+        <v>6053.6485970644108</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="13"/>
+        <v>66413.267317708465</v>
+      </c>
+      <c r="F76">
         <f t="shared" si="15"/>
-        <v>75</v>
-      </c>
-      <c r="B76" s="18">
-        <f>B75*I$2</f>
-        <v>5.2939559203393774E+53</v>
-      </c>
-      <c r="C76" s="18">
+        <v>2767.2194715711862</v>
+      </c>
+      <c r="M76" s="16">
         <f t="shared" si="16"/>
-        <v>2.2083501118474859E+46</v>
-      </c>
-      <c r="D76">
-        <f t="shared" si="10"/>
-        <v>6659.0134567708519</v>
-      </c>
-      <c r="E76">
-        <f t="shared" si="11"/>
-        <v>73072.280774479324</v>
-      </c>
-      <c r="F76">
-        <f t="shared" si="12"/>
-        <v>3044.6783656033053</v>
-      </c>
-      <c r="M76" s="18">
-        <f t="shared" si="13"/>
-        <v>1.588186776101813E+54</v>
-      </c>
-      <c r="N76" s="18">
-        <f t="shared" si="14"/>
-        <v>6.3527471044072525E+53</v>
+        <v>3.1763735522036267E+53</v>
+      </c>
+      <c r="N76" s="16">
+        <f t="shared" si="17"/>
+        <v>1.2705494208814507E+53</v>
       </c>
       <c r="Q76">
-        <f t="shared" si="17"/>
-        <v>4.1901066429755025E-6</v>
+        <f t="shared" si="20"/>
+        <v>5.1098861499701251E-6</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77">
+        <f t="shared" si="18"/>
+        <v>75</v>
+      </c>
+      <c r="B77" s="16">
+        <f t="shared" si="14"/>
+        <v>5.2939559203393774E+53</v>
+      </c>
+      <c r="C77" s="16">
+        <f t="shared" si="19"/>
+        <v>2.2083501118474859E+46</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="12"/>
+        <v>6659.0134567708519</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="13"/>
+        <v>73072.280774479324</v>
+      </c>
+      <c r="F77">
         <f t="shared" si="15"/>
-        <v>76</v>
-      </c>
-      <c r="B77" s="18">
-        <f>B76*I$2</f>
-        <v>2.6469779601696889E+54</v>
-      </c>
-      <c r="C77" s="18">
+        <v>3044.6783656033053</v>
+      </c>
+      <c r="M77" s="16">
         <f t="shared" si="16"/>
-        <v>1.003795505385221E+47</v>
-      </c>
-      <c r="D77">
-        <f t="shared" si="10"/>
-        <v>7324.9148024479373</v>
-      </c>
-      <c r="E77">
-        <f t="shared" si="11"/>
-        <v>80397.195576927261</v>
-      </c>
-      <c r="F77">
-        <f t="shared" si="12"/>
-        <v>3349.883149038636</v>
-      </c>
-      <c r="M77" s="18">
-        <f t="shared" si="13"/>
-        <v>7.9409338805090666E+54</v>
-      </c>
-      <c r="N77" s="18">
-        <f t="shared" si="14"/>
-        <v>3.1763735522036268E+54</v>
+        <v>1.588186776101813E+54</v>
+      </c>
+      <c r="N77" s="16">
+        <f t="shared" si="17"/>
+        <v>6.3527471044072525E+53</v>
       </c>
       <c r="Q77">
-        <f t="shared" si="17"/>
-        <v>3.4358874472399118E-6</v>
+        <f t="shared" si="20"/>
+        <v>4.1901066429755025E-6</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78">
+        <f t="shared" si="18"/>
+        <v>76</v>
+      </c>
+      <c r="B78" s="16">
+        <f t="shared" si="14"/>
+        <v>2.6469779601696889E+54</v>
+      </c>
+      <c r="C78" s="16">
+        <f t="shared" si="19"/>
+        <v>1.003795505385221E+47</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="12"/>
+        <v>7324.9148024479373</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="13"/>
+        <v>80397.195576927261</v>
+      </c>
+      <c r="F78">
         <f t="shared" si="15"/>
-        <v>77</v>
-      </c>
-      <c r="B78" s="18">
-        <f>B77*I$2</f>
-        <v>1.3234889800848446E+55</v>
-      </c>
-      <c r="C78" s="18">
+        <v>3349.883149038636</v>
+      </c>
+      <c r="M78" s="16">
         <f t="shared" si="16"/>
-        <v>4.5627068426600958E+47</v>
-      </c>
-      <c r="D78">
-        <f t="shared" si="10"/>
-        <v>8057.406282692732</v>
-      </c>
-      <c r="E78">
-        <f t="shared" si="11"/>
-        <v>88454.601859619986</v>
-      </c>
-      <c r="F78">
-        <f t="shared" si="12"/>
-        <v>3685.6084108174996</v>
-      </c>
-      <c r="M78" s="18">
-        <f t="shared" si="13"/>
-        <v>3.9704669402545337E+55</v>
-      </c>
-      <c r="N78" s="18">
-        <f t="shared" si="14"/>
-        <v>1.5881867761018133E+55</v>
+        <v>7.9409338805090666E+54</v>
+      </c>
+      <c r="N78" s="16">
+        <f t="shared" si="17"/>
+        <v>3.1763735522036268E+54</v>
       </c>
       <c r="Q78">
-        <f t="shared" si="17"/>
-        <v>2.8174277067367275E-6</v>
+        <f t="shared" si="20"/>
+        <v>3.4358874472399118E-6</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79">
+        <f t="shared" si="18"/>
+        <v>77</v>
+      </c>
+      <c r="B79" s="16">
+        <f t="shared" si="14"/>
+        <v>1.3234889800848446E+55</v>
+      </c>
+      <c r="C79" s="16">
+        <f t="shared" si="19"/>
+        <v>4.5627068426600958E+47</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="12"/>
+        <v>8057.406282692732</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="13"/>
+        <v>88454.601859619986</v>
+      </c>
+      <c r="F79">
         <f t="shared" si="15"/>
-        <v>78</v>
-      </c>
-      <c r="B79" s="18">
-        <f>B78*I$2</f>
-        <v>6.6174449004242223E+55</v>
-      </c>
-      <c r="C79" s="18">
+        <v>3685.6084108174996</v>
+      </c>
+      <c r="M79" s="16">
         <f t="shared" si="16"/>
-        <v>2.0739576557545883E+48</v>
-      </c>
-      <c r="D79">
-        <f t="shared" si="10"/>
-        <v>8863.1469109620066</v>
-      </c>
-      <c r="E79">
-        <f t="shared" si="11"/>
-        <v>97317.748770581995</v>
-      </c>
-      <c r="F79">
-        <f t="shared" si="12"/>
-        <v>4054.9061987742498</v>
-      </c>
-      <c r="M79" s="18">
-        <f t="shared" si="13"/>
-        <v>1.9852334701272667E+56</v>
-      </c>
-      <c r="N79" s="18">
-        <f t="shared" si="14"/>
-        <v>7.9409338805090663E+55</v>
+        <v>3.9704669402545337E+55</v>
+      </c>
+      <c r="N79" s="16">
+        <f t="shared" si="17"/>
+        <v>1.5881867761018133E+55</v>
       </c>
       <c r="Q79">
-        <f t="shared" si="17"/>
-        <v>2.3102907195241165E-6</v>
+        <f t="shared" si="20"/>
+        <v>2.8174277067367275E-6</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80">
+        <f t="shared" si="18"/>
+        <v>78</v>
+      </c>
+      <c r="B80" s="16">
+        <f t="shared" si="14"/>
+        <v>6.6174449004242223E+55</v>
+      </c>
+      <c r="C80" s="16">
+        <f t="shared" si="19"/>
+        <v>2.0739576557545883E+48</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="12"/>
+        <v>8863.1469109620066</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="13"/>
+        <v>97317.748770581995</v>
+      </c>
+      <c r="F80">
         <f t="shared" si="15"/>
-        <v>79</v>
-      </c>
-      <c r="B80" s="18">
-        <f>B79*I$2</f>
-        <v>3.3087224502121111E+56</v>
-      </c>
-      <c r="C80" s="18">
+        <v>4054.9061987742498</v>
+      </c>
+      <c r="M80" s="16">
         <f t="shared" si="16"/>
-        <v>9.4270802534299446E+48</v>
-      </c>
-      <c r="D80">
-        <f t="shared" si="10"/>
-        <v>9749.4616020582089</v>
-      </c>
-      <c r="E80">
-        <f t="shared" si="11"/>
-        <v>107067.2103726402</v>
-      </c>
-      <c r="F80">
-        <f t="shared" si="12"/>
-        <v>4461.1337655266752</v>
-      </c>
-      <c r="M80" s="18">
-        <f t="shared" si="13"/>
-        <v>9.9261673506363334E+56</v>
-      </c>
-      <c r="N80" s="18">
-        <f t="shared" si="14"/>
-        <v>3.9704669402545334E+56</v>
+        <v>1.9852334701272667E+56</v>
+      </c>
+      <c r="N80" s="16">
+        <f t="shared" si="17"/>
+        <v>7.9409338805090663E+55</v>
       </c>
       <c r="Q80">
-        <f t="shared" si="17"/>
-        <v>1.8944383900097753E-6</v>
+        <f t="shared" si="20"/>
+        <v>2.3102907195241165E-6</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81">
+        <f t="shared" si="18"/>
+        <v>79</v>
+      </c>
+      <c r="B81" s="16">
+        <f t="shared" si="14"/>
+        <v>3.3087224502121111E+56</v>
+      </c>
+      <c r="C81" s="16">
+        <f t="shared" si="19"/>
+        <v>9.4270802534299446E+48</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="12"/>
+        <v>9749.4616020582089</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="13"/>
+        <v>107067.2103726402</v>
+      </c>
+      <c r="F81">
         <f t="shared" si="15"/>
-        <v>80</v>
-      </c>
-      <c r="B81" s="18">
-        <f>B80*I$2</f>
-        <v>1.6543612251060556E+57</v>
-      </c>
-      <c r="C81" s="18">
+        <v>4461.1337655266752</v>
+      </c>
+      <c r="M81" s="16">
         <f t="shared" si="16"/>
-        <v>4.2850364788317935E+49</v>
-      </c>
-      <c r="D81">
-        <f t="shared" si="10"/>
-        <v>10724.407762264031</v>
-      </c>
-      <c r="E81">
-        <f t="shared" si="11"/>
-        <v>117791.61813490423</v>
-      </c>
-      <c r="F81">
-        <f t="shared" si="12"/>
-        <v>4907.984088954343</v>
-      </c>
-      <c r="M81" s="18">
-        <f t="shared" si="13"/>
-        <v>4.9630836753181667E+57</v>
-      </c>
-      <c r="N81" s="18">
-        <f t="shared" si="14"/>
-        <v>1.9852334701272667E+57</v>
+        <v>9.9261673506363334E+56</v>
+      </c>
+      <c r="N81" s="16">
+        <f t="shared" si="17"/>
+        <v>3.9704669402545334E+56</v>
       </c>
       <c r="Q81">
-        <f t="shared" si="17"/>
-        <v>1.5534394798080156E-6</v>
+        <f t="shared" si="20"/>
+        <v>1.8944383900097753E-6</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82">
+        <f t="shared" si="18"/>
+        <v>80</v>
+      </c>
+      <c r="B82" s="16">
+        <f t="shared" si="14"/>
+        <v>1.6543612251060556E+57</v>
+      </c>
+      <c r="C82" s="16">
+        <f t="shared" si="19"/>
+        <v>4.2850364788317935E+49</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="12"/>
+        <v>10724.407762264031</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="13"/>
+        <v>117791.61813490423</v>
+      </c>
+      <c r="F82">
         <f t="shared" si="15"/>
+        <v>4907.984088954343</v>
+      </c>
+      <c r="M82" s="16">
+        <f t="shared" si="16"/>
+        <v>4.9630836753181667E+57</v>
+      </c>
+      <c r="N82" s="16">
+        <f t="shared" si="17"/>
+        <v>1.9852334701272667E+57</v>
+      </c>
+      <c r="Q82">
+        <f t="shared" si="20"/>
+        <v>1.5534394798080156E-6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <f t="shared" si="18"/>
         <v>81</v>
       </c>
-      <c r="B82" s="18">
-        <f>B81*I$2</f>
+      <c r="B83" s="16">
+        <f t="shared" si="14"/>
         <v>8.2718061255302778E+57</v>
       </c>
-      <c r="C82" s="18">
+      <c r="C83" s="16">
+        <f t="shared" si="19"/>
+        <v>1.9477438540144514E+50</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="12"/>
+        <v>11796.848538490434</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="13"/>
+        <v>129588.46667339467</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="15"/>
+        <v>5399.5194447247777</v>
+      </c>
+      <c r="M83" s="16">
         <f t="shared" si="16"/>
-        <v>1.9477438540144514E+50</v>
-      </c>
-      <c r="D82">
-        <f t="shared" si="10"/>
-        <v>11796.848538490434</v>
-      </c>
-      <c r="E82">
-        <f t="shared" si="11"/>
-        <v>129588.46667339467</v>
-      </c>
-      <c r="F82">
-        <f t="shared" si="12"/>
-        <v>5399.5194447247777</v>
-      </c>
-      <c r="M82" s="18">
-        <f t="shared" si="13"/>
         <v>2.4815418376590832E+58</v>
       </c>
-      <c r="N82" s="18">
-        <f t="shared" si="14"/>
+      <c r="N83" s="16">
+        <f t="shared" si="17"/>
         <v>9.9261673506363334E+57</v>
       </c>
-      <c r="Q82">
-        <f t="shared" si="17"/>
+      <c r="Q83">
+        <f t="shared" si="20"/>
         <v>1.2738203734425727E-6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6024964-544D-4F89-B518-9F03510B6F16}">
-  <dimension ref="A1:F82"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.140625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" style="18" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" style="16" customWidth="1"/>
     <col min="4" max="4" width="33.140625" customWidth="1"/>
     <col min="5" max="5" width="31.5703125" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="19"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="22">
+      <c r="A2" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B2))</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C2))</f>
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B2))</f>
+      <c r="D2" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M2))</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N2))</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="20">
+        <v>1</v>
+      </c>
+      <c r="B3" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B3))</f>
         <v>100</v>
       </c>
-      <c r="C2" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C2))</f>
+      <c r="C3" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C3))</f>
         <v>4</v>
       </c>
-      <c r="D2" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M2))</f>
+      <c r="D3" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M3))</f>
         <v>300</v>
       </c>
-      <c r="E2" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N2))</f>
+      <c r="E3" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N3))</f>
         <v>120</v>
       </c>
-      <c r="F2" s="19"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="22">
+      <c r="F3" s="17"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="20">
         <v>2</v>
       </c>
-      <c r="B3" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B3))</f>
+      <c r="B4" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B4))</f>
         <v>500</v>
       </c>
-      <c r="C3" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C3))</f>
+      <c r="C4" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C4))</f>
         <v>6</v>
       </c>
-      <c r="D3" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M3))</f>
+      <c r="D4" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M4))</f>
         <v>1500</v>
       </c>
-      <c r="E3" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N3))</f>
+      <c r="E4" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N4))</f>
         <v>600</v>
       </c>
-      <c r="F3" s="19"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="22">
+      <c r="F4" s="17"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="20">
         <v>3</v>
       </c>
-      <c r="B4" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B4))</f>
+      <c r="B5" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B5))</f>
         <v>2500</v>
       </c>
-      <c r="C4" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C4))</f>
+      <c r="C5" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C5))</f>
         <v>14</v>
       </c>
-      <c r="D4" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M4))</f>
+      <c r="D5" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M5))</f>
         <v>7500</v>
       </c>
-      <c r="E4" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N4))</f>
+      <c r="E5" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N5))</f>
         <v>3000</v>
       </c>
-      <c r="F4" s="19"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="22">
+      <c r="F5" s="17"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="20">
         <v>4</v>
       </c>
-      <c r="B5" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B5))</f>
+      <c r="B6" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B6))</f>
         <v>12500</v>
       </c>
-      <c r="C5" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C5))</f>
+      <c r="C6" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C6))</f>
         <v>58</v>
       </c>
-      <c r="D5" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M5))</f>
+      <c r="D6" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M6))</f>
         <v>37500</v>
       </c>
-      <c r="E5" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N5))</f>
+      <c r="E6" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N6))</f>
         <v>15000</v>
       </c>
-      <c r="F5" s="19"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="22">
+      <c r="F6" s="17"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="20">
         <v>5</v>
       </c>
-      <c r="B6" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B6))</f>
+      <c r="B7" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B7))</f>
         <v>62500</v>
       </c>
-      <c r="C6" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C6))</f>
+      <c r="C7" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C7))</f>
         <v>145</v>
       </c>
-      <c r="D6" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M6))</f>
+      <c r="D7" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M7))</f>
         <v>187500</v>
       </c>
-      <c r="E6" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N6))</f>
+      <c r="E7" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N7))</f>
         <v>75000</v>
       </c>
-      <c r="F6" s="19"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="22">
+      <c r="F7" s="17"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="20">
         <v>6</v>
       </c>
-      <c r="B7" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B7))</f>
+      <c r="B8" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B8))</f>
         <v>312500</v>
       </c>
-      <c r="C7" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C7))</f>
+      <c r="C8" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C8))</f>
         <v>362</v>
       </c>
-      <c r="D7" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M7))</f>
+      <c r="D8" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M8))</f>
         <v>937500</v>
       </c>
-      <c r="E7" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N7))</f>
+      <c r="E8" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N8))</f>
         <v>375000</v>
       </c>
-      <c r="F7" s="19"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="22">
+      <c r="F8" s="17"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="20">
         <v>7</v>
       </c>
-      <c r="B8" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B8))</f>
+      <c r="B9" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B9))</f>
         <v>1562500</v>
       </c>
-      <c r="C8" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C8))</f>
+      <c r="C9" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C9))</f>
         <v>905</v>
       </c>
-      <c r="D8" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M8))</f>
+      <c r="D9" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M9))</f>
         <v>4687500</v>
       </c>
-      <c r="E8" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N8))</f>
+      <c r="E9" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N9))</f>
         <v>1875000</v>
       </c>
-      <c r="F8" s="19"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="22">
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="20">
         <v>8</v>
       </c>
-      <c r="B9" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B9))</f>
+      <c r="B10" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B10))</f>
         <v>7812500</v>
       </c>
-      <c r="C9" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C9))</f>
+      <c r="C10" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C10))</f>
         <v>2261</v>
       </c>
-      <c r="D9" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M9))</f>
+      <c r="D10" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M10))</f>
         <v>23437500</v>
       </c>
-      <c r="E9" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N9))</f>
+      <c r="E10" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N10))</f>
         <v>9375000</v>
       </c>
-      <c r="F9" s="19"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="22">
+      <c r="F10" s="17"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="20">
         <v>9</v>
       </c>
-      <c r="B10" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B10))</f>
+      <c r="B11" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B11))</f>
         <v>39062500</v>
       </c>
-      <c r="C10" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C10))</f>
+      <c r="C11" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C11))</f>
         <v>5652</v>
       </c>
-      <c r="D10" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M10))</f>
+      <c r="D11" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M11))</f>
         <v>117187500</v>
       </c>
-      <c r="E10" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N10))</f>
+      <c r="E11" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N11))</f>
         <v>46875000</v>
       </c>
-      <c r="F10" s="19"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="22">
+      <c r="F11" s="17"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="20">
         <v>10</v>
       </c>
-      <c r="B11" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B11))</f>
+      <c r="B12" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B12))</f>
         <v>195312500</v>
       </c>
-      <c r="C11" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C11))</f>
+      <c r="C12" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C12))</f>
         <v>18839</v>
       </c>
-      <c r="D11" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M11))</f>
+      <c r="D12" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M12))</f>
         <v>585937500</v>
       </c>
-      <c r="E11" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N11))</f>
+      <c r="E12" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N12))</f>
         <v>234375000</v>
       </c>
-      <c r="F11" s="19"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="22">
+      <c r="F12" s="17"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="20">
         <v>11</v>
       </c>
-      <c r="B12" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B12))</f>
+      <c r="B13" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B13))</f>
         <v>976562500</v>
       </c>
-      <c r="C12" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C12))</f>
+      <c r="C13" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C13))</f>
         <v>62794</v>
       </c>
-      <c r="D12" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M12))</f>
+      <c r="D13" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M13))</f>
         <v>2929687500</v>
       </c>
-      <c r="E12" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N12))</f>
+      <c r="E13" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N13))</f>
         <v>1171875000</v>
       </c>
-      <c r="F12" s="19"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="22">
+      <c r="F13" s="17"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="20">
         <v>12</v>
       </c>
-      <c r="B13" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B13))</f>
+      <c r="B14" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B14))</f>
         <v>4882812500</v>
       </c>
-      <c r="C13" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C13))</f>
+      <c r="C14" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C14))</f>
         <v>209312</v>
       </c>
-      <c r="D13" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M13))</f>
+      <c r="D14" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M14))</f>
         <v>14648437500</v>
       </c>
-      <c r="E13" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N13))</f>
+      <c r="E14" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N14))</f>
         <v>5859375000</v>
       </c>
-      <c r="F13" s="19"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="22">
+      <c r="F14" s="17"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="20">
         <v>13</v>
       </c>
-      <c r="B14" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B14))</f>
+      <c r="B15" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B15))</f>
         <v>24414062500</v>
       </c>
-      <c r="C14" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C14))</f>
+      <c r="C15" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C15))</f>
         <v>697705</v>
       </c>
-      <c r="D14" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M14))</f>
+      <c r="D15" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M15))</f>
         <v>73242187500</v>
       </c>
-      <c r="E14" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N14))</f>
+      <c r="E15" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N15))</f>
         <v>29296875000</v>
       </c>
-      <c r="F14" s="19"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="22">
+      <c r="F15" s="17"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="20">
         <v>14</v>
       </c>
-      <c r="B15" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B15))</f>
+      <c r="B16" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B16))</f>
         <v>122070312500</v>
       </c>
-      <c r="C15" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C15))</f>
+      <c r="C16" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C16))</f>
         <v>2325681</v>
       </c>
-      <c r="D15" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M15))</f>
+      <c r="D16" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M16))</f>
         <v>366210937500</v>
       </c>
-      <c r="E15" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N15))</f>
+      <c r="E16" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N16))</f>
         <v>146484375000</v>
       </c>
-      <c r="F15" s="19"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="22">
+      <c r="F16" s="17"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="20">
         <v>15</v>
       </c>
-      <c r="B16" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B16))</f>
+      <c r="B17" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B17))</f>
         <v>610351562500</v>
       </c>
-      <c r="C16" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C16))</f>
+      <c r="C17" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C17))</f>
         <v>7752268</v>
       </c>
-      <c r="D16" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M16))</f>
+      <c r="D17" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M17))</f>
         <v>1831054687500</v>
       </c>
-      <c r="E16" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N16))</f>
+      <c r="E17" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N17))</f>
         <v>732421875000</v>
       </c>
-      <c r="F16" s="19"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="22">
+      <c r="F17" s="17"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="20">
         <v>16</v>
       </c>
-      <c r="B17" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B17))</f>
+      <c r="B18" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B18))</f>
         <v>3051757812500</v>
       </c>
-      <c r="C17" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C17))</f>
+      <c r="C18" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C18))</f>
         <v>35237582</v>
       </c>
-      <c r="D17" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M17))</f>
+      <c r="D18" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M18))</f>
         <v>9155273437500</v>
       </c>
-      <c r="E17" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N17))</f>
+      <c r="E18" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N18))</f>
         <v>3662109375000</v>
       </c>
-      <c r="F17" s="19"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="22">
+      <c r="F18" s="17"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="20">
         <v>17</v>
       </c>
-      <c r="B18" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B18))</f>
+      <c r="B19" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B19))</f>
         <v>15258789062500</v>
       </c>
-      <c r="C18" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C18))</f>
+      <c r="C19" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C19))</f>
         <v>160170827</v>
       </c>
-      <c r="D18" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M18))</f>
+      <c r="D19" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M19))</f>
         <v>45776367187500</v>
       </c>
-      <c r="E18" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N18))</f>
+      <c r="E19" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N19))</f>
         <v>18310546875000</v>
       </c>
-      <c r="F18" s="19"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="22">
+      <c r="F19" s="17"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="20">
         <v>18</v>
       </c>
-      <c r="B19" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B19))</f>
+      <c r="B20" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B20))</f>
         <v>76293945312500</v>
       </c>
-      <c r="C19" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C19))</f>
+      <c r="C20" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C20))</f>
         <v>728049210</v>
       </c>
-      <c r="D19" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M19))</f>
+      <c r="D20" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M20))</f>
         <v>228881835937500</v>
       </c>
-      <c r="E19" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N19))</f>
+      <c r="E20" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N20))</f>
         <v>91552734375000</v>
       </c>
-      <c r="F19" s="19"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="22">
+      <c r="F20" s="17"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="20">
         <v>19</v>
       </c>
-      <c r="B20" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B20))</f>
+      <c r="B21" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B21))</f>
         <v>381469726562500</v>
       </c>
-      <c r="C20" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C20))</f>
+      <c r="C21" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C21))</f>
         <v>3309314587</v>
       </c>
-      <c r="D20" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M20))</f>
+      <c r="D21" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M21))</f>
         <v>1144409179687500</v>
       </c>
-      <c r="E20" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N20))</f>
+      <c r="E21" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N21))</f>
         <v>457763671875000</v>
       </c>
-      <c r="F20" s="19"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="22">
+      <c r="F21" s="17"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="20">
         <v>20</v>
       </c>
-      <c r="B21" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B21))</f>
+      <c r="B22" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B22))</f>
         <v>1907348632812500</v>
       </c>
-      <c r="C21" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C21))</f>
+      <c r="C22" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C22))</f>
         <v>15042339032</v>
       </c>
-      <c r="D21" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M21))</f>
+      <c r="D22" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M22))</f>
         <v>5722045898437500</v>
       </c>
-      <c r="E21" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N21))</f>
+      <c r="E22" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N22))</f>
         <v>2288818359375000</v>
       </c>
-      <c r="F21" s="19"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="22">
+      <c r="F22" s="17"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="20">
         <v>21</v>
       </c>
-      <c r="B22" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B22))</f>
+      <c r="B23" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B23))</f>
         <v>9536743164062500</v>
       </c>
-      <c r="C22" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C22))</f>
+      <c r="C23" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C23))</f>
         <v>68374268325</v>
       </c>
-      <c r="D22" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M22))</f>
+      <c r="D23" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M23))</f>
         <v>28610229492187500</v>
       </c>
-      <c r="E22" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N22))</f>
+      <c r="E23" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N23))</f>
         <v>11444091796875000</v>
       </c>
-      <c r="F22" s="19"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="22">
+      <c r="F23" s="17"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="20">
         <v>22</v>
       </c>
-      <c r="B23" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B23))</f>
+      <c r="B24" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B24))</f>
         <v>47683715820312500</v>
       </c>
-      <c r="C23" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C23))</f>
+      <c r="C24" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C24))</f>
         <v>310792128749</v>
       </c>
-      <c r="D23" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M23))</f>
+      <c r="D24" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M24))</f>
         <v>143051147460937000</v>
       </c>
-      <c r="E23" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N23))</f>
+      <c r="E24" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N24))</f>
         <v>57220458984375000</v>
       </c>
-      <c r="F23" s="19"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="22">
+      <c r="F24" s="17"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="20">
         <v>23</v>
       </c>
-      <c r="B24" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B24))</f>
+      <c r="B25" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B25))</f>
         <v>238418579101562000</v>
       </c>
-      <c r="C24" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C24))</f>
+      <c r="C25" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C25))</f>
         <v>1412691494310</v>
       </c>
-      <c r="D24" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M24))</f>
+      <c r="D25" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M25))</f>
         <v>715255737304687000</v>
       </c>
-      <c r="E24" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N24))</f>
+      <c r="E25" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N25))</f>
         <v>286102294921875000</v>
       </c>
-      <c r="F24" s="19"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="22">
+      <c r="F25" s="17"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="20">
         <v>24</v>
       </c>
-      <c r="B25" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B25))</f>
+      <c r="B26" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B26))</f>
         <v>1192092895507810000</v>
       </c>
-      <c r="C25" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C25))</f>
+      <c r="C26" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C26))</f>
         <v>6421324974136</v>
       </c>
-      <c r="D25" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M25))</f>
+      <c r="D26" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M26))</f>
         <v>3576278686523440000</v>
       </c>
-      <c r="E25" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N25))</f>
+      <c r="E26" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N26))</f>
         <v>1430511474609370000</v>
       </c>
-      <c r="F25" s="19"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="22">
+      <c r="F26" s="17"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="20">
         <v>25</v>
       </c>
-      <c r="B26" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B26))</f>
+      <c r="B27" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B27))</f>
         <v>5960464477539060000</v>
       </c>
-      <c r="C26" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C26))</f>
+      <c r="C27" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C27))</f>
         <v>29187840791525</v>
       </c>
-      <c r="D26" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M26))</f>
+      <c r="D27" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M27))</f>
         <v>17881393432617200000</v>
       </c>
-      <c r="E26" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N26))</f>
+      <c r="E27" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N27))</f>
         <v>7152557373046870000</v>
       </c>
-      <c r="F26" s="19"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="22">
+      <c r="F27" s="17"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="20">
         <v>26</v>
       </c>
-      <c r="B27" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B27))</f>
+      <c r="B28" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B28))</f>
         <v>29802322387695300000</v>
       </c>
-      <c r="C27" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C27))</f>
+      <c r="C28" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C28))</f>
         <v>132672003597837</v>
       </c>
-      <c r="D27" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M27))</f>
+      <c r="D28" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M28))</f>
         <v>89406967163085900000</v>
       </c>
-      <c r="E27" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N27))</f>
+      <c r="E28" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N28))</f>
         <v>35762786865234400000</v>
       </c>
-      <c r="F27" s="19"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="22">
+      <c r="F28" s="17"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="20">
         <v>27</v>
       </c>
-      <c r="B28" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B28))</f>
+      <c r="B29" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B29))</f>
         <v>1.49011611938477E+20</v>
       </c>
-      <c r="C28" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C28))</f>
+      <c r="C29" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C29))</f>
         <v>603054561808351</v>
       </c>
-      <c r="D28" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M28))</f>
+      <c r="D29" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M29))</f>
         <v>4.4703483581543E+20</v>
       </c>
-      <c r="E28" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N28))</f>
+      <c r="E29" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N29))</f>
         <v>1.78813934326172E+20</v>
       </c>
-      <c r="F28" s="19"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="22">
+      <c r="F29" s="17"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="20">
         <v>28</v>
       </c>
-      <c r="B29" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B29))</f>
+      <c r="B30" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B30))</f>
         <v>7.45058059692383E+20</v>
       </c>
-      <c r="C29" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C29))</f>
+      <c r="C30" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C30))</f>
         <v>2741157099128870</v>
       </c>
-      <c r="D29" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M29))</f>
+      <c r="D30" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M30))</f>
         <v>2.23517417907715E+21</v>
       </c>
-      <c r="E29" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N29))</f>
+      <c r="E30" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N30))</f>
         <v>8.94069671630859E+20</v>
       </c>
-      <c r="F29" s="19"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="22">
+      <c r="F30" s="17"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="20">
         <v>29</v>
       </c>
-      <c r="B30" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B30))</f>
+      <c r="B31" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B31))</f>
         <v>3.72529029846191E+21</v>
       </c>
-      <c r="C30" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C30))</f>
+      <c r="C31" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C31))</f>
         <v>12459804996040300</v>
       </c>
-      <c r="D30" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M30))</f>
+      <c r="D31" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M31))</f>
         <v>1.11758708953857E+22</v>
       </c>
-      <c r="E30" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N30))</f>
+      <c r="E31" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N31))</f>
         <v>4.4703483581543E+21</v>
       </c>
-      <c r="F30" s="19"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="22">
+      <c r="F31" s="17"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="20">
         <v>30</v>
       </c>
-      <c r="B31" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B31))</f>
+      <c r="B32" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B32))</f>
         <v>1.86264514923096E+22</v>
       </c>
-      <c r="C31" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C31))</f>
+      <c r="C32" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C32))</f>
         <v>56635477254728700</v>
       </c>
-      <c r="D31" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M31))</f>
+      <c r="D32" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M32))</f>
         <v>5.58793544769287E+22</v>
       </c>
-      <c r="E31" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N31))</f>
+      <c r="E32" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N32))</f>
         <v>2.23517417907715E+22</v>
       </c>
-      <c r="F31" s="19"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="22">
+      <c r="F32" s="17"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="20">
         <v>31</v>
       </c>
-      <c r="B32" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B32))</f>
+      <c r="B33" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B33))</f>
         <v>9.31322574615478E+22</v>
       </c>
-      <c r="C32" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C32))</f>
+      <c r="C33" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C33))</f>
         <v>257433987521494000</v>
       </c>
-      <c r="D32" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M32))</f>
+      <c r="D33" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M33))</f>
         <v>2.79396772384644E+23</v>
       </c>
-      <c r="E32" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N32))</f>
+      <c r="E33" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N33))</f>
         <v>1.11758708953857E+23</v>
       </c>
-      <c r="F32" s="19"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="22">
+      <c r="F33" s="17"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="20">
         <v>32</v>
       </c>
-      <c r="B33" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B33))</f>
+      <c r="B34" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B34))</f>
         <v>4.65661287307739E+23</v>
       </c>
-      <c r="C33" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C33))</f>
+      <c r="C34" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C34))</f>
         <v>1170154488734060000</v>
       </c>
-      <c r="D33" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M33))</f>
+      <c r="D34" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M34))</f>
         <v>1.39698386192322E+24</v>
       </c>
-      <c r="E33" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N33))</f>
+      <c r="E34" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N34))</f>
         <v>5.58793544769287E+23</v>
       </c>
-      <c r="F33" s="19"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="22">
+      <c r="F34" s="17"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="20">
         <v>33</v>
       </c>
-      <c r="B34" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B34))</f>
+      <c r="B35" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B35))</f>
         <v>2.3283064365387E+24</v>
       </c>
-      <c r="C34" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C34))</f>
+      <c r="C35" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C35))</f>
         <v>5318884039700290000</v>
       </c>
-      <c r="D34" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M34))</f>
+      <c r="D35" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M35))</f>
         <v>6.98491930961609E+24</v>
       </c>
-      <c r="E34" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N34))</f>
+      <c r="E35" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N35))</f>
         <v>2.79396772384644E+24</v>
       </c>
-      <c r="F34" s="19"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="22">
+      <c r="F35" s="17"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="20">
         <v>34</v>
       </c>
-      <c r="B35" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B35))</f>
+      <c r="B36" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B36))</f>
         <v>1.16415321826935E+25</v>
       </c>
-      <c r="C35" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C35))</f>
+      <c r="C36" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C36))</f>
         <v>24176745635001300000</v>
       </c>
-      <c r="D35" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M35))</f>
+      <c r="D36" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M36))</f>
         <v>3.49245965480804E+25</v>
       </c>
-      <c r="E35" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N35))</f>
+      <c r="E36" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N36))</f>
         <v>1.39698386192322E+25</v>
       </c>
-      <c r="F35" s="19"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="22">
+      <c r="F36" s="17"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="20">
         <v>35</v>
       </c>
-      <c r="B36" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B36))</f>
+      <c r="B37" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B37))</f>
         <v>5.82076609134674E+25</v>
       </c>
-      <c r="C36" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C36))</f>
+      <c r="C37" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C37))</f>
         <v>1.09894298340915E+20</v>
       </c>
-      <c r="D36" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M36))</f>
+      <c r="D37" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M37))</f>
         <v>1.74622982740402E+26</v>
       </c>
-      <c r="E36" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N36))</f>
+      <c r="E37" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N37))</f>
         <v>6.98491930961609E+25</v>
       </c>
-      <c r="F36" s="19"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="22">
+      <c r="F37" s="17"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="20">
         <v>36</v>
       </c>
-      <c r="B37" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B37))</f>
+      <c r="B38" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B38))</f>
         <v>2.91038304567337E+26</v>
       </c>
-      <c r="C37" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C37))</f>
+      <c r="C38" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C38))</f>
         <v>4.9951953791325E+20</v>
       </c>
-      <c r="D37" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M37))</f>
+      <c r="D38" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M38))</f>
         <v>8.73114913702011E+26</v>
       </c>
-      <c r="E37" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N37))</f>
+      <c r="E38" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N38))</f>
         <v>3.49245965480804E+26</v>
       </c>
-      <c r="F37" s="19"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="22">
+      <c r="F38" s="17"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="20">
         <v>37</v>
       </c>
-      <c r="B38" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B38))</f>
+      <c r="B39" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B39))</f>
         <v>1.45519152283668E+27</v>
       </c>
-      <c r="C38" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C38))</f>
+      <c r="C39" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C39))</f>
         <v>2.27054335415114E+21</v>
       </c>
-      <c r="D38" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M38))</f>
+      <c r="D39" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M39))</f>
         <v>4.36557456851005E+27</v>
       </c>
-      <c r="E38" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N38))</f>
+      <c r="E39" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N39))</f>
         <v>1.74622982740402E+27</v>
       </c>
-      <c r="F38" s="19"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="22">
+      <c r="F39" s="17"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="20">
         <v>38</v>
       </c>
-      <c r="B39" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B39))</f>
+      <c r="B40" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B40))</f>
         <v>7.27595761418342E+27</v>
       </c>
-      <c r="C39" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C39))</f>
+      <c r="C40" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C40))</f>
         <v>1.03206516097779E+22</v>
       </c>
-      <c r="D39" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M39))</f>
+      <c r="D40" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M40))</f>
         <v>2.18278728425503E+28</v>
       </c>
-      <c r="E39" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N39))</f>
+      <c r="E40" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N40))</f>
         <v>8.73114913702011E+27</v>
       </c>
-      <c r="F39" s="19"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="22">
+      <c r="F40" s="17"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="20">
         <v>39</v>
       </c>
-      <c r="B40" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B40))</f>
+      <c r="B41" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B41))</f>
         <v>3.63797880709171E+28</v>
       </c>
-      <c r="C40" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C40))</f>
+      <c r="C41" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C41))</f>
         <v>4.69120527717177E+22</v>
       </c>
-      <c r="D40" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M40))</f>
+      <c r="D41" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M41))</f>
         <v>1.09139364212751E+29</v>
       </c>
-      <c r="E40" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N40))</f>
+      <c r="E41" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N41))</f>
         <v>4.36557456851005E+28</v>
       </c>
-      <c r="F40" s="19"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="22">
+      <c r="F41" s="17"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="20">
         <v>40</v>
       </c>
-      <c r="B41" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B41))</f>
+      <c r="B42" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B42))</f>
         <v>1.81898940354586E+29</v>
       </c>
-      <c r="C41" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C41))</f>
+      <c r="C42" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C42))</f>
         <v>2.13236603507808E+23</v>
       </c>
-      <c r="D41" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M41))</f>
+      <c r="D42" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M42))</f>
         <v>5.45696821063757E+29</v>
       </c>
-      <c r="E41" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N41))</f>
+      <c r="E42" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N42))</f>
         <v>2.18278728425503E+29</v>
       </c>
-      <c r="F41" s="19"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="22">
+      <c r="F42" s="17"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="20">
         <v>41</v>
       </c>
-      <c r="B42" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B42))</f>
+      <c r="B43" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B43))</f>
         <v>9.09494701772928E+29</v>
       </c>
-      <c r="C42" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C42))</f>
+      <c r="C43" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C43))</f>
         <v>9.69257288671853E+23</v>
       </c>
-      <c r="D42" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M42))</f>
+      <c r="D43" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M43))</f>
         <v>2.72848410531878E+30</v>
       </c>
-      <c r="E42" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N42))</f>
+      <c r="E43" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N43))</f>
         <v>1.09139364212751E+30</v>
       </c>
-      <c r="F42" s="19"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="22">
+      <c r="F43" s="17"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="20">
         <v>42</v>
       </c>
-      <c r="B43" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B43))</f>
+      <c r="B44" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B44))</f>
         <v>4.54747350886464E+30</v>
       </c>
-      <c r="C43" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C43))</f>
+      <c r="C44" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C44))</f>
         <v>4.40571494850842E+24</v>
       </c>
-      <c r="D43" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M43))</f>
+      <c r="D44" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M44))</f>
         <v>1.36424205265939E+31</v>
       </c>
-      <c r="E43" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N43))</f>
+      <c r="E44" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N44))</f>
         <v>5.45696821063757E+30</v>
       </c>
-      <c r="F43" s="19"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="22">
+      <c r="F44" s="17"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="20">
         <v>43</v>
       </c>
-      <c r="B44" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B44))</f>
+      <c r="B45" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B45))</f>
         <v>2.27373675443232E+31</v>
       </c>
-      <c r="C44" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C44))</f>
+      <c r="C45" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C45))</f>
         <v>2.00259770386746E+25</v>
       </c>
-      <c r="D44" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M44))</f>
+      <c r="D45" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M45))</f>
         <v>6.82121026329696E+31</v>
       </c>
-      <c r="E44" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N44))</f>
+      <c r="E45" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N45))</f>
         <v>2.72848410531878E+31</v>
       </c>
-      <c r="F44" s="19"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="22">
+      <c r="F45" s="17"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="20">
         <v>44</v>
       </c>
-      <c r="B45" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B45))</f>
+      <c r="B46" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B46))</f>
         <v>1.13686837721616E+32</v>
       </c>
-      <c r="C45" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C45))</f>
+      <c r="C46" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C46))</f>
         <v>9.1027168357612E+25</v>
       </c>
-      <c r="D45" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M45))</f>
+      <c r="D46" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M46))</f>
         <v>3.41060513164848E+32</v>
       </c>
-      <c r="E45" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N45))</f>
+      <c r="E46" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N46))</f>
         <v>1.36424205265939E+32</v>
       </c>
-      <c r="F45" s="19"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="22">
+      <c r="F46" s="17"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="20">
         <v>45</v>
       </c>
-      <c r="B46" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B46))</f>
+      <c r="B47" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B47))</f>
         <v>5.6843418860808E+32</v>
       </c>
-      <c r="C46" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C46))</f>
+      <c r="C47" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C47))</f>
         <v>4.13759856170963E+26</v>
       </c>
-      <c r="D46" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M46))</f>
+      <c r="D47" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M47))</f>
         <v>1.70530256582424E+33</v>
       </c>
-      <c r="E46" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N46))</f>
+      <c r="E47" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N47))</f>
         <v>6.82121026329696E+32</v>
       </c>
-      <c r="F46" s="19"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="22">
+      <c r="F47" s="17"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="20">
         <v>46</v>
       </c>
-      <c r="B47" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B47))</f>
+      <c r="B48" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B48))</f>
         <v>2.8421709430404E+33</v>
       </c>
-      <c r="C47" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C47))</f>
+      <c r="C48" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C48))</f>
         <v>1.88072661895892E+27</v>
       </c>
-      <c r="D47" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M47))</f>
+      <c r="D48" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M48))</f>
         <v>8.5265128291212E+33</v>
       </c>
-      <c r="E47" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N47))</f>
+      <c r="E48" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N48))</f>
         <v>3.41060513164848E+33</v>
       </c>
-      <c r="F47" s="19"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="22">
+      <c r="F48" s="17"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="20">
         <v>47</v>
       </c>
-      <c r="B48" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B48))</f>
+      <c r="B49" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B49))</f>
         <v>1.4210854715202E+34</v>
       </c>
-      <c r="C48" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C48))</f>
+      <c r="C49" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C49))</f>
         <v>8.5487573589042E+27</v>
       </c>
-      <c r="D48" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M48))</f>
+      <c r="D49" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M49))</f>
         <v>4.2632564145606E+34</v>
       </c>
-      <c r="E48" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N48))</f>
+      <c r="E49" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N49))</f>
         <v>1.70530256582424E+34</v>
       </c>
-      <c r="F48" s="19"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="22">
+      <c r="F49" s="17"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="20">
         <v>48</v>
       </c>
-      <c r="B49" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B49))</f>
+      <c r="B50" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B50))</f>
         <v>7.105427357601E+34</v>
       </c>
-      <c r="C49" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C49))</f>
+      <c r="C50" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C50))</f>
         <v>3.88579879950191E+28</v>
       </c>
-      <c r="D49" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M49))</f>
+      <c r="D50" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M50))</f>
         <v>2.1316282072803E+35</v>
       </c>
-      <c r="E49" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N49))</f>
+      <c r="E50" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N50))</f>
         <v>8.5265128291212E+34</v>
       </c>
-      <c r="F49" s="19"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="22">
+      <c r="F50" s="17"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="20">
         <v>49</v>
       </c>
-      <c r="B50" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B50))</f>
+      <c r="B51" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B51))</f>
         <v>3.5527136788005E+35</v>
       </c>
-      <c r="C50" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C50))</f>
+      <c r="C51" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C51))</f>
         <v>1.76627218159178E+29</v>
       </c>
-      <c r="D50" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M50))</f>
+      <c r="D51" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M51))</f>
         <v>1.06581410364015E+36</v>
       </c>
-      <c r="E50" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N50))</f>
+      <c r="E51" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N51))</f>
         <v>4.2632564145606E+35</v>
       </c>
-      <c r="F50" s="19"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="22">
+      <c r="F51" s="17"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="20">
         <v>50</v>
       </c>
-      <c r="B51" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B51))</f>
+      <c r="B52" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B52))</f>
         <v>1.77635683940025E+36</v>
       </c>
-      <c r="C51" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C51))</f>
+      <c r="C52" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C52))</f>
         <v>8.02850991632626E+29</v>
       </c>
-      <c r="D51" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M51))</f>
+      <c r="D52" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M52))</f>
         <v>5.32907051820075E+36</v>
       </c>
-      <c r="E51" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N51))</f>
+      <c r="E52" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N52))</f>
         <v>2.1316282072803E+36</v>
       </c>
-      <c r="F51" s="19"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="22">
+      <c r="F52" s="17"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="20">
         <v>51</v>
       </c>
-      <c r="B52" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B52))</f>
+      <c r="B53" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B53))</f>
         <v>8.88178419700125E+36</v>
       </c>
-      <c r="C52" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C52))</f>
+      <c r="C53" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C53))</f>
         <v>3.64932268923921E+30</v>
       </c>
-      <c r="D52" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M52))</f>
+      <c r="D53" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M53))</f>
         <v>2.66453525910038E+37</v>
       </c>
-      <c r="E52" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N52))</f>
+      <c r="E53" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N53))</f>
         <v>1.06581410364015E+37</v>
       </c>
-      <c r="F52" s="19"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="22">
+      <c r="F53" s="17"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="20">
         <v>52</v>
       </c>
-      <c r="B53" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B53))</f>
+      <c r="B54" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B54))</f>
         <v>4.44089209850063E+37</v>
       </c>
-      <c r="C53" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C53))</f>
+      <c r="C54" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C54))</f>
         <v>1.65878304056328E+31</v>
       </c>
-      <c r="D53" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M53))</f>
+      <c r="D54" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M54))</f>
         <v>1.33226762955019E+38</v>
       </c>
-      <c r="E53" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N53))</f>
+      <c r="E54" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N54))</f>
         <v>5.32907051820075E+37</v>
       </c>
-      <c r="F53" s="19"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="22">
+      <c r="F54" s="17"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="20">
         <v>53</v>
       </c>
-      <c r="B54" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B54))</f>
+      <c r="B55" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B55))</f>
         <v>2.22044604925031E+38</v>
       </c>
-      <c r="C54" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C54))</f>
+      <c r="C55" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C55))</f>
         <v>7.53992291165125E+31</v>
       </c>
-      <c r="D54" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M54))</f>
+      <c r="D55" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M55))</f>
         <v>6.66133814775094E+38</v>
       </c>
-      <c r="E54" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N54))</f>
+      <c r="E55" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N55))</f>
         <v>2.66453525910038E+38</v>
       </c>
-      <c r="F54" s="19"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="22">
+      <c r="F55" s="17"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="20">
         <v>54</v>
       </c>
-      <c r="B55" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B55))</f>
+      <c r="B56" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B56))</f>
         <v>1.11022302462516E+39</v>
       </c>
-      <c r="C55" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C55))</f>
+      <c r="C56" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C56))</f>
         <v>3.42723768711421E+32</v>
       </c>
-      <c r="D55" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M55))</f>
+      <c r="D56" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M56))</f>
         <v>3.33066907387547E+39</v>
       </c>
-      <c r="E55" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N55))</f>
+      <c r="E56" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N56))</f>
         <v>1.33226762955019E+39</v>
       </c>
-      <c r="F55" s="19"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="22">
+      <c r="F56" s="17"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="20">
         <v>55</v>
       </c>
-      <c r="B56" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B56))</f>
+      <c r="B57" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B57))</f>
         <v>5.55111512312578E+39</v>
       </c>
-      <c r="C56" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C56))</f>
+      <c r="C57" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C57))</f>
         <v>1.55783531232464E+33</v>
       </c>
-      <c r="D56" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M56))</f>
+      <c r="D57" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M57))</f>
         <v>1.66533453693774E+40</v>
       </c>
-      <c r="E56" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N56))</f>
+      <c r="E57" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N57))</f>
         <v>6.66133814775094E+39</v>
       </c>
-      <c r="F56" s="19"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="22">
+      <c r="F57" s="17"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="20">
         <v>56</v>
       </c>
-      <c r="B57" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B57))</f>
+      <c r="B58" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B58))</f>
         <v>2.77555756156289E+40</v>
       </c>
-      <c r="C57" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C57))</f>
+      <c r="C58" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C58))</f>
         <v>7.08106960147563E+33</v>
       </c>
-      <c r="D57" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M57))</f>
+      <c r="D58" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M58))</f>
         <v>8.32667268468867E+40</v>
       </c>
-      <c r="E57" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N57))</f>
+      <c r="E58" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N58))</f>
         <v>3.33066907387547E+40</v>
       </c>
-      <c r="F57" s="19"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="22">
+      <c r="F58" s="17"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="20">
         <v>57</v>
       </c>
-      <c r="B58" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B58))</f>
+      <c r="B59" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B59))</f>
         <v>1.38777878078145E+41</v>
       </c>
-      <c r="C58" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C58))</f>
+      <c r="C59" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C59))</f>
         <v>3.21866800067074E+34</v>
       </c>
-      <c r="D58" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M58))</f>
+      <c r="D59" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M59))</f>
         <v>4.16333634234434E+41</v>
       </c>
-      <c r="E58" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N58))</f>
+      <c r="E59" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N59))</f>
         <v>1.66533453693773E+41</v>
       </c>
-      <c r="F58" s="19"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="22">
+      <c r="F59" s="17"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="20">
         <v>58</v>
       </c>
-      <c r="B59" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B59))</f>
+      <c r="B60" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B60))</f>
         <v>6.93889390390723E+41</v>
       </c>
-      <c r="C59" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C59))</f>
+      <c r="C60" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C60))</f>
         <v>1.46303090939579E+35</v>
       </c>
-      <c r="D59" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M59))</f>
+      <c r="D60" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M60))</f>
         <v>2.08166817117217E+42</v>
       </c>
-      <c r="E59" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N59))</f>
+      <c r="E60" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N60))</f>
         <v>8.32667268468867E+41</v>
       </c>
-      <c r="F59" s="19"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="22">
+      <c r="F60" s="17"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="20">
         <v>59</v>
       </c>
-      <c r="B60" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B60))</f>
+      <c r="B61" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B61))</f>
         <v>3.46944695195361E+42</v>
       </c>
-      <c r="C60" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C60))</f>
+      <c r="C61" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C61))</f>
         <v>6.6501404972536E+35</v>
       </c>
-      <c r="D60" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M60))</f>
+      <c r="D61" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M61))</f>
         <v>1.04083408558608E+43</v>
       </c>
-      <c r="E60" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N60))</f>
+      <c r="E61" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N61))</f>
         <v>4.16333634234434E+42</v>
       </c>
-      <c r="F60" s="19"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="22">
+      <c r="F61" s="17"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="20">
         <v>60</v>
       </c>
-      <c r="B61" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B61))</f>
+      <c r="B62" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B62))</f>
         <v>1.73472347597681E+43</v>
       </c>
-      <c r="C61" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C61))</f>
+      <c r="C62" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C62))</f>
         <v>3.02279113511527E+36</v>
       </c>
-      <c r="D61" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M61))</f>
+      <c r="D62" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M62))</f>
         <v>5.20417042793042E+43</v>
       </c>
-      <c r="E61" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N61))</f>
+      <c r="E62" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N62))</f>
         <v>2.08166817117217E+43</v>
       </c>
-      <c r="F61" s="19"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="22">
+      <c r="F62" s="17"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="20">
         <v>61</v>
       </c>
-      <c r="B62" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B62))</f>
+      <c r="B63" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B63))</f>
         <v>8.67361737988404E+43</v>
       </c>
-      <c r="C62" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C62))</f>
+      <c r="C63" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C63))</f>
         <v>1.37399597050694E+37</v>
       </c>
-      <c r="D62" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M62))</f>
+      <c r="D63" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M63))</f>
         <v>2.60208521396521E+44</v>
       </c>
-      <c r="E62" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N62))</f>
+      <c r="E63" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N63))</f>
         <v>1.04083408558608E+44</v>
       </c>
-      <c r="F62" s="19"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="22">
+      <c r="F63" s="17"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="20">
         <v>62</v>
       </c>
-      <c r="B63" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B63))</f>
+      <c r="B64" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B64))</f>
         <v>4.33680868994202E+44</v>
       </c>
-      <c r="C63" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C63))</f>
+      <c r="C64" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C64))</f>
         <v>6.24543622957701E+37</v>
       </c>
-      <c r="D63" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M63))</f>
+      <c r="D64" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M64))</f>
         <v>1.30104260698261E+45</v>
       </c>
-      <c r="E63" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N63))</f>
+      <c r="E64" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N64))</f>
         <v>5.20417042793042E+44</v>
       </c>
-      <c r="F63" s="19"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="22">
+      <c r="F64" s="17"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="20">
         <v>63</v>
       </c>
-      <c r="B64" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B64))</f>
+      <c r="B65" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B65))</f>
         <v>2.16840434497101E+45</v>
       </c>
-      <c r="C64" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C64))</f>
+      <c r="C65" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C65))</f>
         <v>2.83883464980773E+38</v>
       </c>
-      <c r="D64" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M64))</f>
+      <c r="D65" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M65))</f>
         <v>6.50521303491303E+45</v>
       </c>
-      <c r="E64" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N64))</f>
+      <c r="E65" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N65))</f>
         <v>2.60208521396521E+45</v>
       </c>
-      <c r="F64" s="19"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="22">
+      <c r="F65" s="17"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="20">
         <v>64</v>
       </c>
-      <c r="B65" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B65))</f>
+      <c r="B66" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B66))</f>
         <v>1.0842021724855E+46</v>
       </c>
-      <c r="C65" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C65))</f>
+      <c r="C66" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C66))</f>
         <v>1.29037938627624E+39</v>
       </c>
-      <c r="D65" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M65))</f>
+      <c r="D66" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M66))</f>
         <v>3.25260651745651E+46</v>
       </c>
-      <c r="E65" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N65))</f>
+      <c r="E66" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N66))</f>
         <v>1.30104260698261E+46</v>
       </c>
-      <c r="F65" s="19"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="22">
+      <c r="F66" s="17"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="20">
         <v>65</v>
       </c>
-      <c r="B66" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B66))</f>
+      <c r="B67" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B67))</f>
         <v>5.42101086242752E+46</v>
       </c>
-      <c r="C66" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C66))</f>
+      <c r="C67" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C67))</f>
         <v>5.86536084671018E+39</v>
       </c>
-      <c r="D66" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M66))</f>
+      <c r="D67" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M67))</f>
         <v>1.62630325872826E+47</v>
       </c>
-      <c r="E66" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N66))</f>
+      <c r="E67" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N67))</f>
         <v>6.50521303491303E+46</v>
       </c>
-      <c r="F66" s="19"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="22">
+      <c r="F67" s="17"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="20">
         <v>66</v>
       </c>
-      <c r="B67" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B67))</f>
+      <c r="B68" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B68))</f>
         <v>2.71050543121376E+47</v>
       </c>
-      <c r="C67" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C67))</f>
+      <c r="C68" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C68))</f>
         <v>2.66607311214099E+40</v>
       </c>
-      <c r="D67" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M67))</f>
+      <c r="D68" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M68))</f>
         <v>8.13151629364129E+47</v>
       </c>
-      <c r="E67" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N67))</f>
+      <c r="E68" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N68))</f>
         <v>3.25260651745651E+47</v>
       </c>
-      <c r="F67" s="19"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="22">
+      <c r="F68" s="17"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="20">
         <v>67</v>
       </c>
-      <c r="B68" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B68))</f>
+      <c r="B69" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B69))</f>
         <v>1.35525271560688E+48</v>
       </c>
-      <c r="C68" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C68))</f>
+      <c r="C69" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C69))</f>
         <v>1.21185141460954E+41</v>
       </c>
-      <c r="D68" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M68))</f>
+      <c r="D69" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M69))</f>
         <v>4.06575814682064E+48</v>
       </c>
-      <c r="E68" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N68))</f>
+      <c r="E69" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N69))</f>
         <v>1.62630325872826E+48</v>
       </c>
-      <c r="F68" s="19"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="22">
+      <c r="F69" s="17"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="20">
         <v>68</v>
       </c>
-      <c r="B69" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B69))</f>
+      <c r="B70" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B70))</f>
         <v>6.7762635780344E+48</v>
       </c>
-      <c r="C69" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C69))</f>
+      <c r="C70" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C70))</f>
         <v>5.50841552095246E+41</v>
       </c>
-      <c r="D69" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M69))</f>
+      <c r="D70" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M70))</f>
         <v>2.03287907341032E+49</v>
       </c>
-      <c r="E69" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N69))</f>
+      <c r="E70" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N70))</f>
         <v>8.13151629364128E+48</v>
       </c>
-      <c r="F69" s="19"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="22">
+      <c r="F70" s="17"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="20">
         <v>69</v>
       </c>
-      <c r="B70" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B70))</f>
+      <c r="B71" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B71))</f>
         <v>3.3881317890172E+49</v>
       </c>
-      <c r="C70" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C70))</f>
+      <c r="C71" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C71))</f>
         <v>2.50382523679657E+42</v>
       </c>
-      <c r="D70" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M70))</f>
+      <c r="D71" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M71))</f>
         <v>1.01643953670516E+50</v>
       </c>
-      <c r="E70" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N70))</f>
+      <c r="E71" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N71))</f>
         <v>4.06575814682064E+49</v>
       </c>
-      <c r="F70" s="19"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="22">
+      <c r="F71" s="17"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="20">
         <v>70</v>
       </c>
-      <c r="B71" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B71))</f>
+      <c r="B72" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B72))</f>
         <v>1.6940658945086E+50</v>
       </c>
-      <c r="C71" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C71))</f>
+      <c r="C72" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C72))</f>
         <v>1.13810238036208E+43</v>
       </c>
-      <c r="D71" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M71))</f>
+      <c r="D72" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M72))</f>
         <v>5.0821976835258E+50</v>
       </c>
-      <c r="E71" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N71))</f>
+      <c r="E72" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N72))</f>
         <v>2.03287907341032E+50</v>
       </c>
-      <c r="F71" s="19"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="22">
+      <c r="F72" s="17"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="20">
         <v>71</v>
       </c>
-      <c r="B72" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B72))</f>
+      <c r="B73" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B73))</f>
         <v>8.470329472543E+50</v>
       </c>
-      <c r="C72" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C72))</f>
+      <c r="C73" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C73))</f>
         <v>5.17319263800945E+43</v>
       </c>
-      <c r="D72" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M72))</f>
+      <c r="D73" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M73))</f>
         <v>2.5410988417629E+51</v>
       </c>
-      <c r="E72" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N72))</f>
+      <c r="E73" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N73))</f>
         <v>1.01643953670516E+51</v>
       </c>
-      <c r="F72" s="19"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="22">
+      <c r="F73" s="17"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="20">
         <v>72</v>
       </c>
-      <c r="B73" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B73))</f>
+      <c r="B74" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B74))</f>
         <v>4.2351647362715E+51</v>
       </c>
-      <c r="C73" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C73))</f>
+      <c r="C74" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C74))</f>
         <v>2.3514511990952E+44</v>
       </c>
-      <c r="D73" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M73))</f>
+      <c r="D74" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M74))</f>
         <v>1.27054942088145E+52</v>
       </c>
-      <c r="E73" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N73))</f>
+      <c r="E74" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N74))</f>
         <v>5.0821976835258E+51</v>
       </c>
-      <c r="F73" s="19"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="22">
+      <c r="F74" s="17"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="20">
         <v>73</v>
       </c>
-      <c r="B74" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B74))</f>
+      <c r="B75" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B75))</f>
         <v>2.11758236813575E+52</v>
       </c>
-      <c r="C74" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C74))</f>
+      <c r="C75" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C75))</f>
         <v>1.06884145413418E+45</v>
       </c>
-      <c r="D74" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M74))</f>
+      <c r="D75" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M75))</f>
         <v>6.35274710440725E+52</v>
       </c>
-      <c r="E74" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N74))</f>
+      <c r="E75" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N75))</f>
         <v>2.5410988417629E+52</v>
       </c>
-      <c r="F74" s="19"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="22">
+      <c r="F75" s="17"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="20">
         <v>74</v>
       </c>
-      <c r="B75" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B75))</f>
+      <c r="B76" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B76))</f>
         <v>1.05879118406788E+53</v>
       </c>
-      <c r="C75" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C75))</f>
+      <c r="C76" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C76))</f>
         <v>4.85837024606447E+45</v>
       </c>
-      <c r="D75" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M75))</f>
+      <c r="D76" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M76))</f>
         <v>3.17637355220363E+53</v>
       </c>
-      <c r="E75" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N75))</f>
+      <c r="E76" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N76))</f>
         <v>1.27054942088145E+53</v>
       </c>
-      <c r="F75" s="19"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="22">
+      <c r="F76" s="17"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="20">
         <v>75</v>
       </c>
-      <c r="B76" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B76))</f>
+      <c r="B77" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B77))</f>
         <v>5.29395592033938E+53</v>
       </c>
-      <c r="C76" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C76))</f>
+      <c r="C77" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C77))</f>
         <v>2.20835011184749E+46</v>
       </c>
-      <c r="D76" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M76))</f>
+      <c r="D77" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M77))</f>
         <v>1.58818677610181E+54</v>
       </c>
-      <c r="E76" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N76))</f>
+      <c r="E77" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N77))</f>
         <v>6.35274710440725E+53</v>
       </c>
-      <c r="F76" s="19"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="22">
+      <c r="F77" s="17"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="20">
         <v>76</v>
       </c>
-      <c r="B77" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B77))</f>
+      <c r="B78" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B78))</f>
         <v>2.64697796016969E+54</v>
       </c>
-      <c r="C77" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C77))</f>
+      <c r="C78" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C78))</f>
         <v>1.00379550538522E+47</v>
       </c>
-      <c r="D77" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M77))</f>
+      <c r="D78" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M78))</f>
         <v>7.94093388050907E+54</v>
       </c>
-      <c r="E77" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N77))</f>
+      <c r="E78" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N78))</f>
         <v>3.17637355220363E+54</v>
       </c>
-      <c r="F77" s="19"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="22">
+      <c r="F78" s="17"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="20">
         <v>77</v>
       </c>
-      <c r="B78" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B78))</f>
+      <c r="B79" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B79))</f>
         <v>1.32348898008484E+55</v>
       </c>
-      <c r="C78" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C78))</f>
+      <c r="C79" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C79))</f>
         <v>4.5627068426601E+47</v>
       </c>
-      <c r="D78" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M78))</f>
+      <c r="D79" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M79))</f>
         <v>3.97046694025453E+55</v>
       </c>
-      <c r="E78" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N78))</f>
+      <c r="E79" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N79))</f>
         <v>1.58818677610181E+55</v>
       </c>
-      <c r="F78" s="19"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="22">
+      <c r="F79" s="17"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="20">
         <v>78</v>
       </c>
-      <c r="B79" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B79))</f>
+      <c r="B80" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B80))</f>
         <v>6.61744490042422E+55</v>
       </c>
-      <c r="C79" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C79))</f>
+      <c r="C80" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C80))</f>
         <v>2.07395765575459E+48</v>
       </c>
-      <c r="D79" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M79))</f>
+      <c r="D80" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M80))</f>
         <v>1.98523347012727E+56</v>
       </c>
-      <c r="E79" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N79))</f>
+      <c r="E80" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N80))</f>
         <v>7.94093388050907E+55</v>
       </c>
-      <c r="F79" s="19"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="22">
+      <c r="F80" s="17"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="20">
         <v>79</v>
       </c>
-      <c r="B80" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B80))</f>
+      <c r="B81" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B81))</f>
         <v>3.30872245021211E+56</v>
       </c>
-      <c r="C80" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C80))</f>
+      <c r="C81" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C81))</f>
         <v>9.42708025342994E+48</v>
       </c>
-      <c r="D80" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M80))</f>
+      <c r="D81" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M81))</f>
         <v>9.92616735063633E+56</v>
       </c>
-      <c r="E80" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N80))</f>
+      <c r="E81" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N81))</f>
         <v>3.97046694025453E+56</v>
       </c>
-      <c r="F80" s="19"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="22">
+      <c r="F81" s="17"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="20">
         <v>80</v>
       </c>
-      <c r="B81" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B81))</f>
+      <c r="B82" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B82))</f>
         <v>1.65436122510606E+57</v>
       </c>
-      <c r="C81" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C81))</f>
+      <c r="C82" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C82))</f>
         <v>4.28503647883179E+49</v>
       </c>
-      <c r="D81" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M81))</f>
+      <c r="D82" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M82))</f>
         <v>4.96308367531817E+57</v>
       </c>
-      <c r="E81" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N81))</f>
+      <c r="E82" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N82))</f>
         <v>1.98523347012727E+57</v>
       </c>
-      <c r="F81" s="19"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="22">
+      <c r="F82" s="17"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="20">
         <v>81</v>
       </c>
-      <c r="B82" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B82))</f>
+      <c r="B83" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!B83))</f>
         <v>8.27180612553028E+57</v>
       </c>
-      <c r="C82" s="22" t="str">
-        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C82))</f>
+      <c r="C83" s="20" t="str">
+        <f>TRIM(_xlfn.CEILING.MATH( TownCenterIncome!C83))</f>
         <v>1.94774385401445E+50</v>
       </c>
-      <c r="D82" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M82))</f>
+      <c r="D83" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH( TownCenterIncome!M83))</f>
         <v>2.48154183765908E+58</v>
       </c>
-      <c r="E82" s="22" t="str">
-        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N82))</f>
+      <c r="E83" s="20" t="str">
+        <f>TRIM(_xlfn.FLOOR.MATH(TownCenterIncome!N83))</f>
         <v>9.92616735063633E+57</v>
       </c>
-      <c r="F82" s="19"/>
+      <c r="F83" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
